--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurtis Potier\Documents\ec499\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurtis Potier\Documents\ec499_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46474F1-AD17-4ABA-AAF7-58DF7B7EB7E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2EA16-93B3-486A-9D53-F65B8FF9BD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="1110" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inital conditions + sources" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,22 @@
     <sheet name="ukraine" sheetId="3" r:id="rId3"/>
     <sheet name="armenia" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>Initial Conditions</t>
   </si>
@@ -209,12 +219,27 @@
   <si>
     <t>labor_force</t>
   </si>
+  <si>
+    <t>labor_growth</t>
+  </si>
+  <si>
+    <t>capital_gdp</t>
+  </si>
+  <si>
+    <t>fdi</t>
+  </si>
+  <si>
+    <t>FDI (current us dollars)</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BX.KLT.DINV.CD.WD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -240,6 +265,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,10 +289,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -283,8 +315,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -681,7 +715,7 @@
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -697,7 +731,7 @@
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -721,7 +755,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -737,7 +771,7 @@
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -801,8 +835,16 @@
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -819,6 +861,7 @@
     <hyperlink ref="C27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C33" r:id="rId13" xr:uid="{BD076F66-D31E-4740-BB0F-F01C2418D966}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -829,9 +872,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -841,10 +884,10 @@
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="21.140625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="13" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,29 +928,35 @@
         <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -924,8 +973,10 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
-    </row>
-    <row r="2" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+    </row>
+    <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1987</v>
       </c>
@@ -945,10 +996,10 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="10">
+      <c r="R2" s="3"/>
+      <c r="S2" s="10">
         <v>7.2501072501072503</v>
       </c>
-      <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -969,8 +1020,10 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
-    </row>
-    <row r="3" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1988</v>
       </c>
@@ -990,10 +1043,10 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="10">
+      <c r="R3" s="3"/>
+      <c r="S3" s="10">
         <v>7.2207215898128494</v>
       </c>
-      <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -1014,8 +1067,10 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
-    </row>
-    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+    </row>
+    <row r="4" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1989</v>
       </c>
@@ -1035,10 +1090,10 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="10">
+      <c r="R4" s="3"/>
+      <c r="S4" s="10">
         <v>7.0133988248826444</v>
       </c>
-      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1059,8 +1114,10 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-    </row>
-    <row r="5" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1990</v>
       </c>
@@ -1086,23 +1143,26 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="10">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="10">
         <v>2.6391508874980034</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>7.0089511906772515</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>9811198807.9986629</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
+        <f>T5/B5</f>
+        <v>0.24238706111630801</v>
+      </c>
+      <c r="V5" s="10">
         <v>4944650</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -1120,8 +1180,10 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
-    </row>
-    <row r="6" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1991</v>
       </c>
@@ -1151,24 +1213,30 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="10">
         <v>2.6661276204028996</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>6.4171122994652414</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>6585262584.3878279</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
+        <f t="shared" ref="U6:U33" si="0">T6/B6</f>
+        <v>0.22190905227378024</v>
+      </c>
+      <c r="V6" s="10">
         <v>4979810</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="W6" s="4">
+        <f>(V6-V5)/V5</f>
+        <v>7.1107156219348188E-3</v>
+      </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -1185,8 +1253,10 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-    </row>
-    <row r="7" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1992</v>
       </c>
@@ -1218,23 +1288,29 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="O7" s="10"/>
+      <c r="N7" s="6"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10">
         <v>2.7917046075700247</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>6.3235928223158311</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>8749940512.9112129</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25296117818684238</v>
+      </c>
+      <c r="V7" s="10">
         <v>5024964</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="6">
+        <f t="shared" ref="W7:W34" si="1">(V7-V6)/V6</f>
+        <v>9.0674142186147662E-3</v>
+      </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
@@ -1255,8 +1331,10 @@
       <c r="AO7" s="10"/>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
-    </row>
-    <row r="8" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+    </row>
+    <row r="8" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1993</v>
       </c>
@@ -1293,21 +1371,29 @@
       <c r="M8" s="4">
         <v>-5.7334420399999999</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="N8" s="10">
+        <v>654278424.68260205</v>
+      </c>
+      <c r="R8" s="10">
         <v>2.9495583961428902</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>6.5360583842728204</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>10709143429.492678</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26367880755166379</v>
+      </c>
+      <c r="V8" s="10">
         <v>5079383</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="W8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0829729327414087E-2</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -1324,8 +1410,10 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
-    </row>
-    <row r="9" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1994</v>
       </c>
@@ -1362,20 +1450,31 @@
       <c r="M9" s="4">
         <v>0.69107454300000004</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="N9" s="10">
+        <v>878231739.72525501</v>
+      </c>
+      <c r="R9" s="10">
         <v>3.1976652977538991</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>8.1716506973096461</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>14110767774.882751</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29672724913510906</v>
+      </c>
+      <c r="V9" s="10">
         <v>5138591</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="W9" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1656533874291424E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1995</v>
       </c>
@@ -1412,21 +1511,29 @@
       <c r="M10" s="4">
         <v>3.3836395399999999</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="N10" s="10">
+        <v>2567564641.6269798</v>
+      </c>
+      <c r="R10" s="10">
         <v>3.4211894405173013</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>7.9809553169261331</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>20163715146.948002</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33732296130913919</v>
+      </c>
+      <c r="V10" s="10">
         <v>5158888</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="W10" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9499154534774223E-3</v>
+      </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -1443,8 +1550,10 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-    </row>
-    <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="11" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1996</v>
       </c>
@@ -1481,20 +1590,31 @@
       <c r="M11" s="4">
         <v>2.3377312209999999</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="N11" s="10">
+        <v>1435279128.1538301</v>
+      </c>
+      <c r="R11" s="10">
         <v>3.5115940241126782</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>7.8712340074288072</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>23843957679.442406</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.35595559031249346</v>
+      </c>
+      <c r="V11" s="10">
         <v>5156836</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="W11" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.9776013745597888E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1997</v>
       </c>
@@ -1531,20 +1651,31 @@
       <c r="M12" s="4">
         <v>4.4658241580000002</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="N12" s="10">
+        <v>1286492873.1410401</v>
+      </c>
+      <c r="R12" s="10">
         <v>3.5199572105538528</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>8.0754586904407493</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>19968799883.906544</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32316072955621639</v>
+      </c>
+      <c r="V12" s="10">
         <v>5134548</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="W12" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.3220300199579747E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1998</v>
       </c>
@@ -1581,20 +1712,31 @@
       <c r="M13" s="4">
         <v>2.605768844</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="N13" s="10">
+        <v>3700169387.6310701</v>
+      </c>
+      <c r="R13" s="10">
         <v>3.6738741085079565</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>7.9231356182942205</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>20167558826.809414</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30331547543339071</v>
+      </c>
+      <c r="V13" s="10">
         <v>5155906</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
+        <v>4.1596650766532904E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1999</v>
       </c>
@@ -1631,20 +1773,31 @@
       <c r="M14" s="4">
         <v>5.5205192639999998</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="N14" s="10">
+        <v>6312596675.9624901</v>
+      </c>
+      <c r="R14" s="10">
         <v>4.0509001431857108</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>7.6643352314929443</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>18916868194.80925</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29162327970221413</v>
+      </c>
+      <c r="V14" s="10">
         <v>5184073</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="W14" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4630553776581648E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -1681,20 +1834,31 @@
       <c r="M15" s="4">
         <v>5.302291479</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="N15" s="10">
+        <v>4987079129.2638397</v>
+      </c>
+      <c r="R15" s="10">
         <v>4.0598417124012993</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>7.6700073255505847</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>19362801362.85318</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31407884279730164</v>
+      </c>
+      <c r="V15" s="10">
         <v>5153252</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="W15" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.9453252297951825E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
@@ -1731,20 +1895,31 @@
       <c r="M16" s="4">
         <v>2.2001515610000002</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="N16" s="10">
+        <v>5640707235.8748302</v>
+      </c>
+      <c r="R16" s="10">
         <v>4.269967558476143</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>6.7973282495096763</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>21303196733.595016</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31549241154393803</v>
+      </c>
+      <c r="V16" s="10">
         <v>5132252</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W16" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.0750966574116696E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -1781,20 +1956,31 @@
       <c r="M17" s="4">
         <v>3.9027307539999998</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="N17" s="10">
+        <v>8496609035.7757998</v>
+      </c>
+      <c r="R17" s="10">
         <v>4.3687888389493237</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <v>6.6142198992375461</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>24676131538.917366</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30125624430386733</v>
+      </c>
+      <c r="V17" s="10">
         <v>5133850</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W17" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1136428998420186E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -1831,20 +2017,31 @@
       <c r="M18" s="4">
         <v>4.7383191269999996</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="N18" s="10">
+        <v>2021275745.9550099</v>
+      </c>
+      <c r="R18" s="10">
         <v>4.4580060124836924</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <v>6.3925258240673726</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>28930802226.239853</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2903907724999662</v>
+      </c>
+      <c r="V18" s="10">
         <v>5128047</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W18" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.1303407773892887E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -1881,20 +2078,31 @@
       <c r="M19" s="4">
         <v>2.0747635409999998</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="N19" s="10">
+        <v>6423465150.7573605</v>
+      </c>
+      <c r="R19" s="10">
         <v>4.6632164855764797</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <v>6.1425328438948998</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <v>34972840255.566193</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29348944829685053</v>
+      </c>
+      <c r="V19" s="10">
         <v>5125017</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W19" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.9086821942154586E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -1931,20 +2139,31 @@
       <c r="M20" s="4">
         <v>5.69880897</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="N20" s="10">
+        <v>13730164683.4592</v>
+      </c>
+      <c r="R20" s="10">
         <v>4.9890915620379293</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <v>6.0675498269483228</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>39691327105.612465</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29124689005678833</v>
+      </c>
+      <c r="V20" s="10">
         <v>5180451</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.081635436526357E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -1981,20 +2200,31 @@
       <c r="M21" s="4">
         <v>4.8691001759999999</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="N21" s="10">
+        <v>7132002407.7059898</v>
+      </c>
+      <c r="R21" s="10">
         <v>5.2936439160111171</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <v>6.1356507304927321</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>46707589088.141052</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30044027581432237</v>
+      </c>
+      <c r="V21" s="10">
         <v>5186176</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1051161375718061E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -2031,20 +2261,31 @@
       <c r="M22" s="4">
         <v>2.1930769720000001</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="N22" s="10">
+        <v>13815656003.7033</v>
+      </c>
+      <c r="R22" s="10">
         <v>5.845855275860564</v>
       </c>
-      <c r="R22" s="10">
+      <c r="S22" s="10">
         <v>5.8395294905204773</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="10">
         <v>60689425782.385666</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32072278006112837</v>
+      </c>
+      <c r="V22" s="10">
         <v>5185801</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W22" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.2307611619813902E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -2081,20 +2322,31 @@
       <c r="M23" s="4">
         <v>4.1130798070000001</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="N23" s="10">
+        <v>8815393022.1081505</v>
+      </c>
+      <c r="R23" s="10">
         <v>6.4296103932845527</v>
       </c>
-      <c r="R23" s="10">
+      <c r="S23" s="10">
         <v>5.6002461145800098</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>73218484392.29837</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31061820518638</v>
+      </c>
+      <c r="V23" s="10">
         <v>5205012</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W23" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7045386045473014E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -2131,20 +2383,31 @@
       <c r="M24" s="4">
         <v>3.3053443300000001</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="N24" s="10">
+        <v>5271613701.7926998</v>
+      </c>
+      <c r="R24" s="10">
         <v>6.8404102487274594</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <v>5.5969746083198268</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>54664848135.130882</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26513169494574229</v>
+      </c>
+      <c r="V24" s="10">
         <v>5249648</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W24" s="6">
+        <f t="shared" si="1"/>
+        <v>8.5755806134548782E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -2181,20 +2444,31 @@
       <c r="M25" s="4">
         <v>7.4190375939999997</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="N25" s="10">
+        <v>10167834374.8186</v>
+      </c>
+      <c r="R25" s="10">
         <v>6.5285764585625383</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <v>5.4966189729517829</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <v>56273585276.137863</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27122694363910937</v>
+      </c>
+      <c r="V25" s="10">
         <v>5241405</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W25" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.5702005163012835E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -2231,20 +2505,31 @@
       <c r="M26" s="4">
         <v>5.6956873249999997</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="N26" s="10">
+        <v>4188736491.2936802</v>
+      </c>
+      <c r="R26" s="10">
         <v>7.0627675253800382</v>
       </c>
-      <c r="R26" s="10">
+      <c r="S26" s="10">
         <v>5.2349024756189051</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T26" s="10">
         <v>61449260893.520515</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26957537083932959</v>
+      </c>
+      <c r="V26" s="10">
         <v>5232722</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W26" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.6566168803975271E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -2281,20 +2566,31 @@
       <c r="M27" s="4">
         <v>3.8899561889999998</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="N27" s="10">
+        <v>9433199804.7764702</v>
+      </c>
+      <c r="R27" s="10">
         <v>7.1649327302817545</v>
       </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10">
         <v>5.0762883746658067</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="10">
         <v>54302847656.748817</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26185641462179476</v>
+      </c>
+      <c r="V27" s="10">
         <v>5270072</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W27" s="6">
+        <f t="shared" si="1"/>
+        <v>7.137776476564205E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -2331,20 +2627,31 @@
       <c r="M28" s="4">
         <v>3.4880497940000001</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="N28" s="10">
+        <v>7357578652.5699997</v>
+      </c>
+      <c r="R28" s="10">
         <v>7.6405463055346621</v>
       </c>
-      <c r="R28" s="10">
+      <c r="S28" s="10">
         <v>4.8300206490015807</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>51653391356.926086</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24667043098702626</v>
+      </c>
+      <c r="V28" s="10">
         <v>5323403</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W28" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0119596089009789E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -2381,20 +2688,31 @@
       <c r="M29" s="4">
         <v>2.1125382519999998</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="N29" s="10">
+        <v>8088661929.8802996</v>
+      </c>
+      <c r="R29" s="10">
         <v>8.2407100267253419</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <v>4.7646730536694264</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>53784174394.797058</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25880380333854991</v>
+      </c>
+      <c r="V29" s="10">
         <v>5324486</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W29" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0344129497616468E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -2431,20 +2749,31 @@
       <c r="M30" s="4">
         <v>3.0807167569999998</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="N30" s="10">
+        <v>1699914616.6024201</v>
+      </c>
+      <c r="R30" s="10">
         <v>8.7283415459146561</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <v>4.5207765347372382</v>
       </c>
-      <c r="S30" s="10">
+      <c r="T30" s="10">
         <v>52229767772.752686</v>
       </c>
-      <c r="T30" s="10">
+      <c r="U30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2795578033166492</v>
+      </c>
+      <c r="V30" s="10">
         <v>5337336</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W30" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4133784932479866E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -2479,14 +2808,25 @@
       <c r="M31" s="4">
         <v>2.6087213729999998</v>
       </c>
-      <c r="S31" s="10">
+      <c r="N31" s="10">
+        <v>10850612308.2062</v>
+      </c>
+      <c r="T31" s="10">
         <v>50684051705.031654</v>
       </c>
-      <c r="T31" s="10">
+      <c r="U31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25979794420709773</v>
+      </c>
+      <c r="V31" s="10">
         <v>5388390</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W31" s="6">
+        <f t="shared" si="1"/>
+        <v>9.5654461326774264E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -2521,14 +2861,25 @@
       <c r="M32" s="4">
         <v>2.1172482960000001</v>
       </c>
-      <c r="S32" s="10">
+      <c r="N32" s="10">
+        <v>11234740946.094101</v>
+      </c>
+      <c r="T32" s="10">
         <v>55863209228.707176</v>
       </c>
-      <c r="T32" s="10">
+      <c r="U32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25872952629611229</v>
+      </c>
+      <c r="V32" s="10">
         <v>5418917</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W32" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6653286046481413E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -2563,16 +2914,31 @@
       <c r="M33" s="4">
         <v>0.97318110000000002</v>
       </c>
-      <c r="S33" s="10">
+      <c r="N33" s="10">
+        <v>8493644233.8442698</v>
+      </c>
+      <c r="T33" s="10">
         <v>64170195467.845688</v>
       </c>
-      <c r="T33" s="10">
+      <c r="U33" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26167790572552074</v>
+      </c>
+      <c r="V33" s="10">
         <v>5403502</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T34" s="10">
+      <c r="W33" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.8446643489833854E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V34" s="10">
         <v>5376592</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.9801036438961253E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2585,10 +2951,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV34"/>
+  <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2597,7 +2963,7 @@
     <col min="11" max="11" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2638,34 +3004,40 @@
         <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
@@ -2675,8 +3047,10 @@
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
-    </row>
-    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+    </row>
+    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1987</v>
       </c>
@@ -2704,15 +3078,14 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
@@ -2722,8 +3095,10 @@
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
-    </row>
-    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+    </row>
+    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1988</v>
       </c>
@@ -2750,18 +3125,17 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="V3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
@@ -2771,8 +3145,10 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+    </row>
+    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1989</v>
       </c>
@@ -2799,18 +3175,21 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="S4" s="10">
+      <c r="N4" s="6"/>
+      <c r="T4" s="10">
         <v>20411280639.514965</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="U4" s="10">
+        <f>T4/B4</f>
+        <v>0.24678379478486878</v>
+      </c>
       <c r="V4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
@@ -2820,8 +3199,10 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
-    </row>
-    <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+    </row>
+    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1990</v>
       </c>
@@ -2846,20 +3227,24 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>1.398169569006271</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>7.3443035770495531</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>25474828242.897945</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
+        <f t="shared" ref="U5:U31" si="0">T5/B5</f>
+        <v>0.31273989559368898</v>
+      </c>
+      <c r="V5" s="10">
         <v>24575823</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1991</v>
       </c>
@@ -2890,24 +3275,30 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="10">
         <v>1.3222304487626926</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>8.053377958609099</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>23825513110.973049</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3075666183016087</v>
+      </c>
+      <c r="V6" s="10">
         <v>24582836</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="W6" s="10">
+        <f>(V6-V5)/V5</f>
+        <v>2.8536175573855657E-4</v>
+      </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
@@ -2933,8 +3324,10 @@
       <c r="AT6" s="10"/>
       <c r="AU6" s="10"/>
       <c r="AV6" s="10"/>
-    </row>
-    <row r="7" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+    </row>
+    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1992</v>
       </c>
@@ -2971,26 +3364,34 @@
       <c r="M7" s="4">
         <v>-90.560069799999994</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="N7" s="10">
+        <v>200000000</v>
+      </c>
+      <c r="R7" s="10">
         <v>1.4036515074857732</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>8.9122017145099228</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>18566517337.038471</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25109488851760353</v>
+      </c>
+      <c r="V7" s="10">
         <v>24636767</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="W7" s="10">
+        <f t="shared" ref="W7:W34" si="1">(V7-V6)/V6</f>
+        <v>2.1938477724864616E-3</v>
+      </c>
+      <c r="X7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
@@ -3000,8 +3401,10 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+    </row>
+    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1993</v>
       </c>
@@ -3041,32 +3444,42 @@
       <c r="M8" s="4">
         <v>-91.724411700000005</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="10">
+        <v>200000000</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="10">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="10">
         <v>1.3907284570632643</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>9.6139446601772693</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>12865006816.720989</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19596784507868389</v>
+      </c>
+      <c r="V8" s="10">
         <v>24679622</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="W8" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7394733651537964E-3</v>
+      </c>
+      <c r="X8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
       <c r="AI8" s="4"/>
-    </row>
-    <row r="9" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+    </row>
+    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1994</v>
       </c>
@@ -3106,20 +3519,31 @@
       <c r="M9" s="4">
         <v>-66.749288699999994</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="N9" s="10">
+        <v>159000000</v>
+      </c>
+      <c r="R9" s="10">
         <v>1.2847418677181561</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>10.579489228613854</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>10101667234.006784</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19223126067054819</v>
+      </c>
+      <c r="V9" s="10">
         <v>24709107</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="W9" s="10">
+        <f t="shared" si="1"/>
+        <v>1.194710356584878E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1995</v>
       </c>
@@ -3159,20 +3583,31 @@
       <c r="M10" s="4">
         <v>-56.8251767</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="N10" s="10">
+        <v>267000000</v>
+      </c>
+      <c r="R10" s="10">
         <v>1.1662452202321363</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>9.5732660547618682</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>10755223492.708584</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22307323388743802</v>
+      </c>
+      <c r="V10" s="10">
         <v>24674281</v>
       </c>
-    </row>
-    <row r="11" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="W10" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.4094398474214385E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1996</v>
       </c>
@@ -3212,20 +3647,31 @@
       <c r="M11" s="4">
         <v>8.2684495919999996</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="N11" s="10">
+        <v>521000000</v>
+      </c>
+      <c r="R11" s="10">
         <v>1.1666778339232911</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>13.521350220204065</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>8718922216.076313</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19567545642120715</v>
+      </c>
+      <c r="V11" s="10">
         <v>24307974</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="W11" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.4845701076355579E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1997</v>
       </c>
@@ -3265,20 +3711,31 @@
       <c r="M12" s="4">
         <v>26.29107539</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="N12" s="10">
+        <v>623000000</v>
+      </c>
+      <c r="R12" s="10">
         <v>1.2031249983787424</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>15.836266912599958</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>5530702891.3489437</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11028232904077719</v>
+      </c>
+      <c r="V12" s="10">
         <v>23886291</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="W12" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.7347517320859401E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1998</v>
       </c>
@@ -3318,20 +3775,31 @@
       <c r="M13" s="4">
         <v>37.928651000000002</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="N13" s="10">
+        <v>743000000</v>
+      </c>
+      <c r="R13" s="10">
         <v>1.2621487326526579</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>17.241638960647798</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>6136685429.6381559</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14651887518732989</v>
+      </c>
+      <c r="V13" s="10">
         <v>23452799</v>
       </c>
-    </row>
-    <row r="14" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="W13" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.8148150334432414E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1999</v>
       </c>
@@ -3371,20 +3839,31 @@
       <c r="M14" s="4">
         <v>21.62683797</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="N14" s="10">
+        <v>496000000</v>
+      </c>
+      <c r="R14" s="10">
         <v>1.2838174173669095</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>17.438235704648026</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>9634779695.0913048</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30508501367638485</v>
+      </c>
+      <c r="V14" s="10">
         <v>22982373</v>
       </c>
-    </row>
-    <row r="15" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="W14" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.0058416055158276E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -3424,20 +3903,31 @@
       <c r="M15" s="4">
         <v>14.95540055</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="N15" s="10">
+        <v>595000000</v>
+      </c>
+      <c r="R15" s="10">
         <v>1.4031228982060771</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>18.079162019980267</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>9950812901.2878761</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3183085965601114</v>
+      </c>
+      <c r="V15" s="10">
         <v>23221521</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="W15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.040571397914393E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
@@ -3477,20 +3967,31 @@
       <c r="M16" s="4">
         <v>20.431910290000001</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="N16" s="10">
+        <v>792000000</v>
+      </c>
+      <c r="R16" s="10">
         <v>1.5623437745038411</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>19.709727261679486</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>12829148461.379789</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33785543700152637</v>
+      </c>
+      <c r="V16" s="10">
         <v>22741141</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W16" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.0686844759221414E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -3530,20 +4031,31 @@
       <c r="M17" s="4">
         <v>19.29791079</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="N17" s="10">
+        <v>693000000</v>
+      </c>
+      <c r="R17" s="10">
         <v>1.6518225960967032</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <v>19.295738944069321</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>15969731152.472269</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37707509178934701</v>
+      </c>
+      <c r="V17" s="10">
         <v>22576060</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W17" s="10">
+        <f t="shared" si="1"/>
+        <v>-7.2591344471238271E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -3583,20 +4095,31 @@
       <c r="M18" s="4">
         <v>9.0546917740000001</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="N18" s="10">
+        <v>1424000000</v>
+      </c>
+      <c r="R18" s="10">
         <v>1.7274507137712745</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <v>17.801096510698748</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>22656155482.272133</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45236135575441661</v>
+      </c>
+      <c r="V18" s="10">
         <v>22444882</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W18" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.8104912903314395E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -3636,20 +4159,31 @@
       <c r="M19" s="4">
         <v>1.9583981800000001</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="N19" s="10">
+        <v>1715000000</v>
+      </c>
+      <c r="R19" s="10">
         <v>1.9996993427395031</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <v>15.004120199967039</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <v>31016633663.366337</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4785062604573565</v>
+      </c>
+      <c r="V19" s="10">
         <v>22288742</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W19" s="10">
+        <f t="shared" si="1"/>
+        <v>-6.956597054063372E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -3689,20 +4223,31 @@
       <c r="M20" s="4">
         <v>-6.4565437799999996</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="N20" s="10">
+        <v>7808000000</v>
+      </c>
+      <c r="R20" s="10">
         <v>2.1382262847710733</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <v>13.337959152937126</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>46802970297.029701</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.54385433319771193</v>
+      </c>
+      <c r="V20" s="10">
         <v>22163073</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W20" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.6382275859265633E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -3742,20 +4287,31 @@
       <c r="M21" s="4">
         <v>0.38390250199999998</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="N21" s="10">
+        <v>5604000000</v>
+      </c>
+      <c r="R21" s="10">
         <v>2.4623543618507986</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <v>12.362277664788106</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>58460662211.421631</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.54307284136344602</v>
+      </c>
+      <c r="V21" s="10">
         <v>22035067</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W21" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.7756431159162814E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -3795,20 +4351,31 @@
       <c r="M22" s="4">
         <v>-7.4759358100000002</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="N22" s="10">
+        <v>10193000000</v>
+      </c>
+      <c r="R22" s="10">
         <v>2.6811417404604261</v>
       </c>
-      <c r="R22" s="10">
+      <c r="S22" s="10">
         <v>11.695227030690289</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="10">
         <v>23248408460.827602</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16305563920127908</v>
+      </c>
+      <c r="V22" s="10">
         <v>21912056</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W22" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.5825108224086635E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -3848,20 +4415,31 @@
       <c r="M23" s="4">
         <v>-8.6220075999999999</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="N23" s="10">
+        <v>10700000000</v>
+      </c>
+      <c r="R23" s="10">
         <v>2.8940850335767054</v>
       </c>
-      <c r="R23" s="10">
+      <c r="S23" s="10">
         <v>11.611955178465724</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>28390543878.219669</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15788594472713771</v>
+      </c>
+      <c r="V23" s="10">
         <v>21800656</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W23" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.0839592596879091E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -3901,20 +4479,31 @@
       <c r="M24" s="4">
         <v>6.9410618599999996</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="N24" s="10">
+        <v>4769000000</v>
+      </c>
+      <c r="R24" s="10">
         <v>2.9221189589358247</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <v>11.918050443787834</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>36608012450.424217</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31258600061345027</v>
+      </c>
+      <c r="V24" s="10">
         <v>21737545</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W24" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.894912887025051E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -3954,20 +4543,31 @@
       <c r="M25" s="4">
         <v>1.708319336</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="N25" s="10">
+        <v>6451000000</v>
+      </c>
+      <c r="R25" s="10">
         <v>2.6548011733029564</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <v>11.489291842311522</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <v>38171818295.582535</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.28064798615682529</v>
+      </c>
+      <c r="V25" s="10">
         <v>21666236</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W25" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.2804532434550452E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -4007,20 +4607,31 @@
       <c r="M26" s="4">
         <v>1.5292661350000001</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="N26" s="10">
+        <v>7207000000</v>
+      </c>
+      <c r="R26" s="10">
         <v>2.9910054407248978</v>
       </c>
-      <c r="R26" s="10">
+      <c r="S26" s="10">
         <v>10.905985185793135</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T26" s="10">
         <v>33891530088.827724</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20772001893531863</v>
+      </c>
+      <c r="V26" s="10">
         <v>21621329</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W26" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.0726719675720324E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -4060,20 +4671,31 @@
       <c r="M27" s="4">
         <v>9.8309763429999997</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="N27" s="10">
+        <v>8175000000</v>
+      </c>
+      <c r="R27" s="10">
         <v>3.156529602663543</v>
       </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10">
         <v>10.798888905693097</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="10">
         <v>17884778786.374687</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10174444462141624</v>
+      </c>
+      <c r="V27" s="10">
         <v>21394384</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W27" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.0496348304953872E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -4113,20 +4735,31 @@
       <c r="M28" s="4">
         <v>11.8003967</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="N28" s="10">
+        <v>4509000000</v>
+      </c>
+      <c r="R28" s="10">
         <v>3.3872290324936438</v>
       </c>
-      <c r="R28" s="10">
+      <c r="S28" s="10">
         <v>10.693525239280147</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>14504250458.921387</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
+        <f t="shared" si="0"/>
+        <v>7.9124100577641146E-2</v>
+      </c>
+      <c r="V28" s="10">
         <v>21540098</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W28" s="10">
+        <f t="shared" si="1"/>
+        <v>6.8108527920224295E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -4166,20 +4799,31 @@
       <c r="M29" s="4">
         <v>1.567044533</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="N29" s="10">
+        <v>847000000</v>
+      </c>
+      <c r="R29" s="10">
         <v>3.5442821519404593</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <v>10.77895315290562</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>20280807630.140152</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15191228015185876</v>
+      </c>
+      <c r="V29" s="10">
         <v>20895181</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W29" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.9940300178764274E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -4219,14 +4863,25 @@
       <c r="M30" s="4">
         <v>-12.2829161</v>
       </c>
-      <c r="S30" s="10">
+      <c r="N30" s="10">
+        <v>3050000000</v>
+      </c>
+      <c r="T30" s="10">
         <v>22378574705.037487</v>
       </c>
-      <c r="T30" s="10">
+      <c r="U30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24583476697479784</v>
+      </c>
+      <c r="V30" s="10">
         <v>20885174</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W30" s="10">
+        <f t="shared" si="1"/>
+        <v>-4.7891425300407786E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -4263,14 +4918,25 @@
       <c r="M31" s="4">
         <v>1.8275824039999999</v>
       </c>
-      <c r="S31" s="10">
+      <c r="N31" s="10">
+        <v>3441000000</v>
+      </c>
+      <c r="T31" s="10">
         <v>24556644179.334938</v>
       </c>
-      <c r="T31" s="10">
+      <c r="U31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26304303799769208</v>
+      </c>
+      <c r="V31" s="10">
         <v>20684320</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W31" s="10">
+        <f t="shared" si="1"/>
+        <v>-9.6170613661155039E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -4307,11 +4973,18 @@
       <c r="M32" s="4">
         <v>-4.6666008100000003</v>
       </c>
-      <c r="T32" s="10">
+      <c r="N32" s="10">
+        <v>2827000000</v>
+      </c>
+      <c r="V32" s="10">
         <v>20505794</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W32" s="10">
+        <f t="shared" si="1"/>
+        <v>-8.6309823093048254E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -4348,13 +5021,24 @@
       <c r="M33" s="4">
         <v>3.1107122550000001</v>
       </c>
-      <c r="T33" s="10">
+      <c r="N33" s="10">
+        <v>2476000000</v>
+      </c>
+      <c r="V33" s="10">
         <v>20275456</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T34" s="10">
+      <c r="W33" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.1232825220032933E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V34" s="10">
         <v>20037572</v>
+      </c>
+      <c r="W34" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.1732609121096955E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4367,18 +5051,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4419,29 +5103,35 @@
         <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -4458,8 +5148,10 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
-    </row>
-    <row r="2" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+    </row>
+    <row r="2" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1987</v>
       </c>
@@ -4501,8 +5193,10 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
-    </row>
-    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1988</v>
       </c>
@@ -4544,8 +5238,10 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
-    </row>
-    <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+    </row>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1989</v>
       </c>
@@ -4587,8 +5283,10 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-    </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+    </row>
+    <row r="5" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1990</v>
       </c>
@@ -4613,23 +5311,26 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="10">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="10">
         <v>1.1147625839904094</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>15.913916232387571</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>1064047261.4170496</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
+        <f>T5/B5</f>
+        <v>0.47147684356986685</v>
+      </c>
+      <c r="V5" s="10">
         <v>1464013</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -4647,8 +5348,10 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
-    </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+    </row>
+    <row r="6" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1991</v>
       </c>
@@ -4677,24 +5380,30 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="10">
         <v>0.96541658396414676</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>17.444304329550231</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>822842147.62611079</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
+        <f t="shared" ref="U6:U33" si="0">T6/B6</f>
+        <v>0.39779144183711884</v>
+      </c>
+      <c r="V6" s="10">
         <v>1449791</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="W6" s="4">
+        <f>(V6-V5)/V5</f>
+        <v>-9.7143946126161448E-3</v>
+      </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -4711,8 +5420,10 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-    </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+    </row>
+    <row r="7" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1992</v>
       </c>
@@ -4738,20 +5449,31 @@
         <v>1.7999999499999999</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="Q7" s="10">
+      <c r="N7" s="10">
+        <v>2400000</v>
+      </c>
+      <c r="R7" s="10">
         <v>1.1303900016399213</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>28.098622834295867</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>20759024.88153455</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6312582610657985E-2</v>
+      </c>
+      <c r="V7" s="10">
         <v>1422553</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="W7" s="6">
+        <f t="shared" ref="W7:W34" si="1">(V7-V6)/V6</f>
+        <v>-1.8787535582715027E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1993</v>
       </c>
@@ -4783,24 +5505,32 @@
         <v>0.18147988000000001</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="10">
+        <v>800000</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="10">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="10">
         <v>1.9881964316026934</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>37.96664019062748</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>118596078.27635182</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
+        <f t="shared" si="0"/>
+        <v>9.8722030338445052E-2</v>
+      </c>
+      <c r="V8" s="10">
         <v>1387777</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="W8" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.4446189351117323E-2</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -4813,8 +5543,10 @@
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
-    </row>
-    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+    </row>
+    <row r="9" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1994</v>
       </c>
@@ -4850,24 +5582,32 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="10">
+        <v>8000000</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="10">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="10">
         <v>3.4040714727829928</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>39.607635206786853</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>367483712.71518803</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27942157932635825</v>
+      </c>
+      <c r="V9" s="10">
         <v>1352833</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+      <c r="W9" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.5179837971086132E-2</v>
+      </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -4876,8 +5616,10 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-    </row>
-    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1995</v>
       </c>
@@ -4917,24 +5659,32 @@
       <c r="M10" s="4">
         <v>-24.9130577</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="10">
+        <v>25320000</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="10">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="10">
         <v>3.1142043829184649</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>39.471318108253911</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>305535833.98230761</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20808569344227423</v>
+      </c>
+      <c r="V10" s="10">
         <v>1323039</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="W10" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.2023413089420497E-2</v>
+      </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -4949,8 +5699,10 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
-    </row>
-    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1996</v>
       </c>
@@ -4990,20 +5742,31 @@
       <c r="M11" s="4">
         <v>39.105168280000001</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="N11" s="10">
+        <v>17570000</v>
+      </c>
+      <c r="R11" s="10">
         <v>3.1000627822249309</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>37.801738010943033</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>336887733.36228526</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21095447166255205</v>
+      </c>
+      <c r="V11" s="10">
         <v>1304929</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="W11" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.3688183039199903E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1997</v>
       </c>
@@ -5043,20 +5806,31 @@
       <c r="M12" s="4">
         <v>30.994349400000001</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="N12" s="10">
+        <v>51940000</v>
+      </c>
+      <c r="R12" s="10">
         <v>3.1168720814200999</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>20.633604246143637</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>381439049.4738701</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23265679292276828</v>
+      </c>
+      <c r="V12" s="10">
         <v>1293934</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="W12" s="6">
+        <f t="shared" si="1"/>
+        <v>-8.4257457685437288E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1998</v>
       </c>
@@ -5096,20 +5870,31 @@
       <c r="M13" s="4">
         <v>34.134611589999999</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="N13" s="10">
+        <v>220830000</v>
+      </c>
+      <c r="R13" s="10">
         <v>3.3206037916541411</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>28.492973671458572</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>429617443.01288402</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22686351869990384</v>
+      </c>
+      <c r="V13" s="10">
         <v>1288701</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.0442557348365528E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1999</v>
       </c>
@@ -5149,20 +5934,31 @@
       <c r="M14" s="4">
         <v>38.773667439999997</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="N14" s="10">
+        <v>122040000</v>
+      </c>
+      <c r="R14" s="10">
         <v>3.5989437532395896</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>25.135560608710861</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>383285988.36720502</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20768880470385789</v>
+      </c>
+      <c r="V14" s="10">
         <v>1286416</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="W14" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.7731033032487753E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -5202,20 +5998,31 @@
       <c r="M15" s="4">
         <v>33.398463059999997</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="N15" s="10">
+        <v>104188500</v>
+      </c>
+      <c r="R15" s="10">
         <v>3.5461387122508237</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>25.377643504531722</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>348522591.42218494</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18232329779665896</v>
+      </c>
+      <c r="V15" s="10">
         <v>1284759</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="W15" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.2880747751893634E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
@@ -5255,20 +6062,31 @@
       <c r="M16" s="4">
         <v>21.733974239999998</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="N16" s="10">
+        <v>69868500</v>
+      </c>
+      <c r="R16" s="10">
         <v>3.9877736330656317</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>26.144473455178417</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>335655604.79948115</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15844261915874178</v>
+      </c>
+      <c r="V16" s="10">
         <v>1289577</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.750119672249815E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -5308,20 +6126,31 @@
       <c r="M17" s="4">
         <v>18.332746910000001</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="N17" s="10">
+        <v>110725325.614409</v>
+      </c>
+      <c r="R17" s="10">
         <v>4.9011217914992384</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <v>25.62058343902881</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>431509549.14101332</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18158615698219641</v>
+      </c>
+      <c r="V17" s="10">
         <v>1293996</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W17" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4267050358373326E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -5361,20 +6190,31 @@
       <c r="M18" s="4">
         <v>15.5583255</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="N18" s="10">
+        <v>122852992.703235</v>
+      </c>
+      <c r="R18" s="10">
         <v>5.3918189940536108</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <v>22.541356117069625</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>684688218.11773241</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24391640081846916</v>
+      </c>
+      <c r="V18" s="10">
         <v>1298206</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W18" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2534876460205441E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -5414,20 +6254,31 @@
       <c r="M19" s="4">
         <v>11.59233051</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="N19" s="10">
+        <v>247140608.49588799</v>
+      </c>
+      <c r="R19" s="10">
         <v>5.7850550122642197</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <v>15.854063018242122</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <v>819718811.50998211</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2291884243647643</v>
+      </c>
+      <c r="V19" s="10">
         <v>1302805</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W19" s="6">
+        <f t="shared" si="1"/>
+        <v>3.542581069568312E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -5467,20 +6318,31 @@
       <c r="M20" s="4">
         <v>14.28173192</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="N20" s="10">
+        <v>292073220.16472203</v>
+      </c>
+      <c r="R20" s="10">
         <v>5.6634675198544064</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <v>15.846129491847396</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>1390336931.2077756</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.28371502026701462</v>
+      </c>
+      <c r="V20" s="10">
         <v>1307908</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W20" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9169330790102897E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -5520,20 +6382,31 @@
       <c r="M21" s="4">
         <v>11.379528049999999</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="N21" s="10">
+        <v>466531991.90172398</v>
+      </c>
+      <c r="R21" s="10">
         <v>6.4854641918986768</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <v>13.112270661504796</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>2142008324.1915929</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33550388605513048</v>
+      </c>
+      <c r="V21" s="10">
         <v>1309974</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5796218082617431E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -5573,20 +6446,31 @@
       <c r="M22" s="4">
         <v>12.74351141</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="N22" s="10">
+        <v>667671562.13449502</v>
+      </c>
+      <c r="R22" s="10">
         <v>6.7939791546916073</v>
       </c>
-      <c r="R22" s="10">
+      <c r="S22" s="10">
         <v>13.140047473719903</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="10">
         <v>3513216680.0017886</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.38160998784675904</v>
+      </c>
+      <c r="V22" s="10">
         <v>1312689</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W22" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0725602187524335E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -5626,20 +6510,31 @@
       <c r="M23" s="4">
         <v>10.43491465</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="N23" s="10">
+        <v>943733059.483284</v>
+      </c>
+      <c r="R23" s="10">
         <v>7.0313194846622684</v>
       </c>
-      <c r="R23" s="10">
+      <c r="S23" s="10">
         <v>15.459272097053725</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>5109079535.404521</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43809481211344253</v>
+      </c>
+      <c r="V23" s="10">
         <v>1311477</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W23" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.232956168597436E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -5679,20 +6574,31 @@
       <c r="M24" s="4">
         <v>15.80345155</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="N24" s="10">
+        <v>760040745.87232995</v>
+      </c>
+      <c r="R24" s="10">
         <v>7.0008353604743734</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <v>14.865103156409804</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>2924907365.6840272</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33822025425484886</v>
+      </c>
+      <c r="V24" s="10">
         <v>1325019</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W24" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0325762480012993E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -5732,20 +6638,31 @@
       <c r="M25" s="4">
         <v>10.60763579</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="N25" s="10">
+        <v>529321391.64195901</v>
+      </c>
+      <c r="R25" s="10">
         <v>7.6077417645403083</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <v>11.246341087659836</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <v>2404787233.330791</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25968825467941514</v>
+      </c>
+      <c r="V25" s="10">
         <v>1379810</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W25" s="6">
+        <f t="shared" si="1"/>
+        <v>4.1351105153963827E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -5785,20 +6702,31 @@
       <c r="M26" s="4">
         <v>12.91975789</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="N26" s="10">
+        <v>653219756.47224998</v>
+      </c>
+      <c r="R26" s="10">
         <v>7.4358766488704209</v>
       </c>
-      <c r="R26" s="10">
+      <c r="S26" s="10">
         <v>12.166890982503364</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T26" s="10">
         <v>2710009559.7084465</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26720368869260586</v>
+      </c>
+      <c r="V26" s="10">
         <v>1404032</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7554590849464782E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -5838,20 +6766,31 @@
       <c r="M27" s="4">
         <v>11.281193289999999</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="N27" s="10">
+        <v>496636701.12968701</v>
+      </c>
+      <c r="R27" s="10">
         <v>7.4266804948119196</v>
       </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10">
         <v>12.207565953210553</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="10">
         <v>2689651387.3816471</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25327905883577267</v>
+      </c>
+      <c r="V27" s="10">
         <v>1401167</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W27" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.0405517822955602E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -5891,20 +6830,31 @@
       <c r="M28" s="4">
         <v>12.216843040000001</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="N28" s="10">
+        <v>346092394.39325601</v>
+      </c>
+      <c r="R28" s="10">
         <v>7.9954250700296194</v>
       </c>
-      <c r="R28" s="10">
+      <c r="S28" s="10">
         <v>12.308690012970169</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>2476031166.9897666</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22263532692302038</v>
+      </c>
+      <c r="V28" s="10">
         <v>1414215</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W28" s="6">
+        <f t="shared" si="1"/>
+        <v>9.3122375848132301E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -5944,20 +6894,31 @@
       <c r="M29" s="4">
         <v>13.781248659999999</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="N29" s="10">
+        <v>406578406.69311202</v>
+      </c>
+      <c r="R29" s="10">
         <v>8.2734441014287015</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <v>11.987096774193548</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>2423121957.6466422</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20871865772673276</v>
+      </c>
+      <c r="V29" s="10">
         <v>1411723</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W29" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.7621083074355738E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -5997,14 +6958,25 @@
       <c r="M30" s="4">
         <v>16.18000967</v>
       </c>
-      <c r="S30" s="10">
+      <c r="N30" s="10">
+        <v>184127986.314895</v>
+      </c>
+      <c r="T30" s="10">
         <v>2187762845.6579294</v>
       </c>
-      <c r="T30" s="10">
+      <c r="U30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20730530126576219</v>
+      </c>
+      <c r="V30" s="10">
         <v>1397974</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W30" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.7391627110984241E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -6041,14 +7013,25 @@
       <c r="M31" s="4">
         <v>17.042359510000001</v>
       </c>
-      <c r="S31" s="10">
+      <c r="N31" s="10">
+        <v>333733314.10460103</v>
+      </c>
+      <c r="T31" s="10">
         <v>1899939894.4656706</v>
       </c>
-      <c r="T31" s="10">
+      <c r="U31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1801550867341708</v>
+      </c>
+      <c r="V31" s="10">
         <v>1373650</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W31" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.7399465226105779E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -6085,14 +7068,25 @@
       <c r="M32" s="4">
         <v>11.99733996</v>
       </c>
-      <c r="S32" s="10">
+      <c r="N32" s="10">
+        <v>250935110.23913899</v>
+      </c>
+      <c r="T32" s="10">
         <v>2223610592.0577793</v>
       </c>
-      <c r="T32" s="10">
+      <c r="U32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19289686268469403</v>
+      </c>
+      <c r="V32" s="10">
         <v>1373669</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W32" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3831762093691988E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -6129,20 +7123,35 @@
       <c r="M33" s="4">
         <v>9.9528420299999993</v>
       </c>
-      <c r="S33" s="10">
+      <c r="N33" s="10">
+        <v>254146163.55732399</v>
+      </c>
+      <c r="T33" s="10">
         <v>2784453922.4414577</v>
       </c>
-      <c r="T33" s="10">
+      <c r="U33" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22395510211633088</v>
+      </c>
+      <c r="V33" s="10">
         <v>1377615</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="W33" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8725988575122536E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="J34" s="7"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="T34" s="10">
+      <c r="V34" s="10">
         <v>1380405</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0252392722204678E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurtis Potier\Documents\ec499_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2EA16-93B3-486A-9D53-F65B8FF9BD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855B7DA-D9D6-4BA3-9121-788E2FCD5935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inital conditions + sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>Initial Conditions</t>
   </si>
@@ -192,10 +192,6 @@
     <t>gdp_cap</t>
   </si>
   <si>
-    <t xml:space="preserve">gdp
-</t>
-  </si>
-  <si>
     <t>gdp</t>
   </si>
   <si>
@@ -233,6 +229,9 @@
   </si>
   <si>
     <t>https://data.worldbank.org/indicator/BX.KLT.DINV.CD.WD</t>
+  </si>
+  <si>
+    <t>fdi_gdp</t>
   </si>
 </sst>
 </file>
@@ -537,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -807,7 +806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -817,34 +816,34 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +871,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -884,15 +883,15 @@
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="21.140625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="13" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>51</v>
@@ -928,36 +927,38 @@
         <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -975,8 +976,9 @@
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
-    </row>
-    <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP1" s="3"/>
+    </row>
+    <row r="2" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1987</v>
       </c>
@@ -997,10 +999,10 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="10">
+      <c r="S2" s="3"/>
+      <c r="T2" s="10">
         <v>7.2501072501072503</v>
       </c>
-      <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -1022,8 +1024,9 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-    </row>
-    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP2" s="3"/>
+    </row>
+    <row r="3" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1988</v>
       </c>
@@ -1044,10 +1047,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="10">
+      <c r="S3" s="3"/>
+      <c r="T3" s="10">
         <v>7.2207215898128494</v>
       </c>
-      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1069,8 +1072,9 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-    </row>
-    <row r="4" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP3" s="3"/>
+    </row>
+    <row r="4" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1989</v>
       </c>
@@ -1091,10 +1095,10 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="10">
+      <c r="S4" s="3"/>
+      <c r="T4" s="10">
         <v>7.0133988248826444</v>
       </c>
-      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1116,8 +1120,9 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-    </row>
-    <row r="5" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP4" s="3"/>
+    </row>
+    <row r="5" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1990</v>
       </c>
@@ -1144,26 +1149,26 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="10">
+      <c r="R5" s="4"/>
+      <c r="S5" s="10">
         <v>2.6391508874980034</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>7.0089511906772515</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <v>9811198807.9986629</v>
       </c>
-      <c r="U5" s="10">
-        <f>T5/B5</f>
+      <c r="V5" s="10">
+        <f>U5/B5</f>
         <v>0.24238706111630801</v>
       </c>
-      <c r="V5" s="10">
+      <c r="W5" s="10">
         <v>4944650</v>
       </c>
-      <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -1182,8 +1187,9 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
-    </row>
-    <row r="6" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP5" s="4"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1991</v>
       </c>
@@ -1214,30 +1220,30 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="10">
+      <c r="R6" s="4"/>
+      <c r="S6" s="10">
         <v>2.6661276204028996</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>6.4171122994652414</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>6585262584.3878279</v>
       </c>
-      <c r="U6" s="10">
-        <f t="shared" ref="U6:U33" si="0">T6/B6</f>
+      <c r="V6" s="10">
+        <f t="shared" ref="V6:V33" si="0">U6/B6</f>
         <v>0.22190905227378024</v>
       </c>
-      <c r="V6" s="10">
+      <c r="W6" s="10">
         <v>4979810</v>
       </c>
-      <c r="W6" s="4">
-        <f>(V6-V5)/V5</f>
+      <c r="X6" s="4">
+        <f>(W6-W5)/W5</f>
         <v>7.1107156219348188E-3</v>
       </c>
-      <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -1255,8 +1261,9 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
-    </row>
-    <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1992</v>
       </c>
@@ -1289,29 +1296,29 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="6"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="10">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10">
         <v>2.7917046075700247</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>6.3235928223158311</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>8749940512.9112129</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <f t="shared" si="0"/>
         <v>0.25296117818684238</v>
       </c>
-      <c r="V7" s="10">
+      <c r="W7" s="10">
         <v>5024964</v>
       </c>
-      <c r="W7" s="6">
-        <f t="shared" ref="W7:W34" si="1">(V7-V6)/V6</f>
+      <c r="X7" s="6">
+        <f t="shared" ref="X7:X34" si="1">(W7-W6)/W6</f>
         <v>9.0674142186147662E-3</v>
       </c>
-      <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -1333,8 +1340,9 @@
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
-    </row>
-    <row r="8" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT7" s="10"/>
+    </row>
+    <row r="8" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1993</v>
       </c>
@@ -1374,27 +1382,30 @@
       <c r="N8" s="10">
         <v>654278424.68260205</v>
       </c>
-      <c r="R8" s="10">
+      <c r="O8" s="10">
+        <f>N8/B8</f>
+        <v>1.6109538168288619E-2</v>
+      </c>
+      <c r="S8" s="10">
         <v>2.9495583961428902</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>6.5360583842728204</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>10709143429.492678</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="10">
         <f t="shared" si="0"/>
         <v>0.26367880755166379</v>
       </c>
-      <c r="V8" s="10">
+      <c r="W8" s="10">
         <v>5079383</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <f t="shared" si="1"/>
         <v>1.0829729327414087E-2</v>
       </c>
-      <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
@@ -1412,8 +1423,9 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
-    </row>
-    <row r="9" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1994</v>
       </c>
@@ -1453,28 +1465,32 @@
       <c r="N9" s="10">
         <v>878231739.72525501</v>
       </c>
-      <c r="R9" s="10">
+      <c r="O9" s="10">
+        <f t="shared" ref="O9:O33" si="2">N9/B9</f>
+        <v>1.8467831969829249E-2</v>
+      </c>
+      <c r="S9" s="10">
         <v>3.1976652977538991</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>8.1716506973096461</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <v>14110767774.882751</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="10">
         <f t="shared" si="0"/>
         <v>0.29672724913510906</v>
       </c>
-      <c r="V9" s="10">
+      <c r="W9" s="10">
         <v>5138591</v>
       </c>
-      <c r="W9" s="6">
+      <c r="X9" s="6">
         <f t="shared" si="1"/>
         <v>1.1656533874291424E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1995</v>
       </c>
@@ -1514,27 +1530,30 @@
       <c r="N10" s="10">
         <v>2567564641.6269798</v>
       </c>
-      <c r="R10" s="10">
+      <c r="O10" s="10">
+        <f t="shared" si="2"/>
+        <v>4.2953319958864082E-2</v>
+      </c>
+      <c r="S10" s="10">
         <v>3.4211894405173013</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>7.9809553169261331</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <v>20163715146.948002</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <f t="shared" si="0"/>
         <v>0.33732296130913919</v>
       </c>
-      <c r="V10" s="10">
+      <c r="W10" s="10">
         <v>5158888</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="6">
         <f t="shared" si="1"/>
         <v>3.9499154534774223E-3</v>
       </c>
-      <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -1552,8 +1571,9 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
-    </row>
-    <row r="11" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="11" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1996</v>
       </c>
@@ -1593,28 +1613,32 @@
       <c r="N11" s="10">
         <v>1435279128.1538301</v>
       </c>
-      <c r="R11" s="10">
+      <c r="O11" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1426628758265138E-2</v>
+      </c>
+      <c r="S11" s="10">
         <v>3.5115940241126782</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>7.8712340074288072</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <v>23843957679.442406</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="10">
         <f t="shared" si="0"/>
         <v>0.35595559031249346</v>
       </c>
-      <c r="V11" s="10">
+      <c r="W11" s="10">
         <v>5156836</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="6">
         <f t="shared" si="1"/>
         <v>-3.9776013745597888E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1997</v>
       </c>
@@ -1654,28 +1678,32 @@
       <c r="N12" s="10">
         <v>1286492873.1410401</v>
       </c>
-      <c r="R12" s="10">
+      <c r="O12" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0819677590549247E-2</v>
+      </c>
+      <c r="S12" s="10">
         <v>3.5199572105538528</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>8.0754586904407493</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <v>19968799883.906544</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="10">
         <f t="shared" si="0"/>
         <v>0.32316072955621639</v>
       </c>
-      <c r="V12" s="10">
+      <c r="W12" s="10">
         <v>5134548</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="6">
         <f t="shared" si="1"/>
         <v>-4.3220300199579747E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1998</v>
       </c>
@@ -1715,28 +1743,32 @@
       <c r="N13" s="10">
         <v>3700169387.6310701</v>
       </c>
-      <c r="R13" s="10">
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>5.5649701911441078E-2</v>
+      </c>
+      <c r="S13" s="10">
         <v>3.6738741085079565</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>7.9231356182942205</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <v>20167558826.809414</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <f t="shared" si="0"/>
         <v>0.30331547543339071</v>
       </c>
-      <c r="V13" s="10">
+      <c r="W13" s="10">
         <v>5155906</v>
       </c>
-      <c r="W13" s="6">
+      <c r="X13" s="6">
         <f t="shared" si="1"/>
         <v>4.1596650766532904E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1999</v>
       </c>
@@ -1776,28 +1808,32 @@
       <c r="N14" s="10">
         <v>6312596675.9624901</v>
       </c>
-      <c r="R14" s="10">
+      <c r="O14" s="10">
+        <f t="shared" si="2"/>
+        <v>9.7315270536515966E-2</v>
+      </c>
+      <c r="S14" s="10">
         <v>4.0509001431857108</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>7.6643352314929443</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>18916868194.80925</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10">
         <f t="shared" si="0"/>
         <v>0.29162327970221413</v>
       </c>
-      <c r="V14" s="10">
+      <c r="W14" s="10">
         <v>5184073</v>
       </c>
-      <c r="W14" s="6">
+      <c r="X14" s="6">
         <f t="shared" si="1"/>
         <v>5.4630553776581648E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -1837,28 +1873,32 @@
       <c r="N15" s="10">
         <v>4987079129.2638397</v>
       </c>
-      <c r="R15" s="10">
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0894082034158515E-2</v>
+      </c>
+      <c r="S15" s="10">
         <v>4.0598417124012993</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>7.6700073255505847</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>19362801362.85318</v>
       </c>
-      <c r="U15" s="10">
+      <c r="V15" s="10">
         <f t="shared" si="0"/>
         <v>0.31407884279730164</v>
       </c>
-      <c r="V15" s="10">
+      <c r="W15" s="10">
         <v>5153252</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="6">
         <f t="shared" si="1"/>
         <v>-5.9453252297951825E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
@@ -1898,28 +1938,32 @@
       <c r="N16" s="10">
         <v>5640707235.8748302</v>
       </c>
-      <c r="R16" s="10">
+      <c r="O16" s="10">
+        <f t="shared" si="2"/>
+        <v>8.3536773889576477E-2</v>
+      </c>
+      <c r="S16" s="10">
         <v>4.269967558476143</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>6.7973282495096763</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <v>21303196733.595016</v>
       </c>
-      <c r="U16" s="10">
+      <c r="V16" s="10">
         <f t="shared" si="0"/>
         <v>0.31549241154393803</v>
       </c>
-      <c r="V16" s="10">
+      <c r="W16" s="10">
         <v>5132252</v>
       </c>
-      <c r="W16" s="6">
+      <c r="X16" s="6">
         <f t="shared" si="1"/>
         <v>-4.0750966574116696E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -1959,28 +2003,32 @@
       <c r="N17" s="10">
         <v>8496609035.7757998</v>
       </c>
-      <c r="R17" s="10">
+      <c r="O17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.10373005685268051</v>
+      </c>
+      <c r="S17" s="10">
         <v>4.3687888389493237</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>6.6142198992375461</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <v>24676131538.917366</v>
       </c>
-      <c r="U17" s="10">
+      <c r="V17" s="10">
         <f t="shared" si="0"/>
         <v>0.30125624430386733</v>
       </c>
-      <c r="V17" s="10">
+      <c r="W17" s="10">
         <v>5133850</v>
       </c>
-      <c r="W17" s="6">
+      <c r="X17" s="6">
         <f t="shared" si="1"/>
         <v>3.1136428998420186E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -2020,28 +2068,32 @@
       <c r="N18" s="10">
         <v>2021275745.9550099</v>
       </c>
-      <c r="R18" s="10">
+      <c r="O18" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0288404749832897E-2</v>
+      </c>
+      <c r="S18" s="10">
         <v>4.4580060124836924</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>6.3925258240673726</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
         <v>28930802226.239853</v>
       </c>
-      <c r="U18" s="10">
+      <c r="V18" s="10">
         <f t="shared" si="0"/>
         <v>0.2903907724999662</v>
       </c>
-      <c r="V18" s="10">
+      <c r="W18" s="10">
         <v>5128047</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="6">
         <f t="shared" si="1"/>
         <v>-1.1303407773892887E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -2081,28 +2133,32 @@
       <c r="N19" s="10">
         <v>6423465150.7573605</v>
       </c>
-      <c r="R19" s="10">
+      <c r="O19" s="10">
+        <f t="shared" si="2"/>
+        <v>5.3905237020312538E-2</v>
+      </c>
+      <c r="S19" s="10">
         <v>4.6632164855764797</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <v>6.1425328438948998</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
         <v>34972840255.566193</v>
       </c>
-      <c r="U19" s="10">
+      <c r="V19" s="10">
         <f t="shared" si="0"/>
         <v>0.29348944829685053</v>
       </c>
-      <c r="V19" s="10">
+      <c r="W19" s="10">
         <v>5125017</v>
       </c>
-      <c r="W19" s="6">
+      <c r="X19" s="6">
         <f t="shared" si="1"/>
         <v>-5.9086821942154586E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -2142,28 +2198,32 @@
       <c r="N20" s="10">
         <v>13730164683.4592</v>
       </c>
-      <c r="R20" s="10">
+      <c r="O20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.10074915745156802</v>
+      </c>
+      <c r="S20" s="10">
         <v>4.9890915620379293</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>6.0675498269483228</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
         <v>39691327105.612465</v>
       </c>
-      <c r="U20" s="10">
+      <c r="V20" s="10">
         <f t="shared" si="0"/>
         <v>0.29124689005678833</v>
       </c>
-      <c r="V20" s="10">
+      <c r="W20" s="10">
         <v>5180451</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="6">
         <f t="shared" si="1"/>
         <v>1.081635436526357E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -2203,28 +2263,32 @@
       <c r="N21" s="10">
         <v>7132002407.7059898</v>
       </c>
-      <c r="R21" s="10">
+      <c r="O21" s="10">
+        <f t="shared" si="2"/>
+        <v>4.5875644885803701E-2</v>
+      </c>
+      <c r="S21" s="10">
         <v>5.2936439160111171</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>6.1356507304927321</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
         <v>46707589088.141052</v>
       </c>
-      <c r="U21" s="10">
+      <c r="V21" s="10">
         <f t="shared" si="0"/>
         <v>0.30044027581432237</v>
       </c>
-      <c r="V21" s="10">
+      <c r="W21" s="10">
         <v>5186176</v>
       </c>
-      <c r="W21" s="6">
+      <c r="X21" s="6">
         <f t="shared" si="1"/>
         <v>1.1051161375718061E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -2264,28 +2328,32 @@
       <c r="N22" s="10">
         <v>13815656003.7033</v>
       </c>
-      <c r="R22" s="10">
+      <c r="O22" s="10">
+        <f t="shared" si="2"/>
+        <v>7.3010998946738778E-2</v>
+      </c>
+      <c r="S22" s="10">
         <v>5.845855275860564</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="10">
         <v>5.8395294905204773</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
         <v>60689425782.385666</v>
       </c>
-      <c r="U22" s="10">
+      <c r="V22" s="10">
         <f t="shared" si="0"/>
         <v>0.32072278006112837</v>
       </c>
-      <c r="V22" s="10">
+      <c r="W22" s="10">
         <v>5185801</v>
       </c>
-      <c r="W22" s="6">
+      <c r="X22" s="6">
         <f t="shared" si="1"/>
         <v>-7.2307611619813902E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -2325,28 +2393,32 @@
       <c r="N23" s="10">
         <v>8815393022.1081505</v>
       </c>
-      <c r="R23" s="10">
+      <c r="O23" s="10">
+        <f t="shared" si="2"/>
+        <v>3.7397954645832537E-2</v>
+      </c>
+      <c r="S23" s="10">
         <v>6.4296103932845527</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>5.6002461145800098</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
         <v>73218484392.29837</v>
       </c>
-      <c r="U23" s="10">
+      <c r="V23" s="10">
         <f t="shared" si="0"/>
         <v>0.31061820518638</v>
       </c>
-      <c r="V23" s="10">
+      <c r="W23" s="10">
         <v>5205012</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="6">
         <f t="shared" si="1"/>
         <v>3.7045386045473014E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -2386,28 +2458,32 @@
       <c r="N24" s="10">
         <v>5271613701.7926998</v>
       </c>
-      <c r="R24" s="10">
+      <c r="O24" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5568019001909022E-2</v>
+      </c>
+      <c r="S24" s="10">
         <v>6.8404102487274594</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>5.5969746083198268</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
         <v>54664848135.130882</v>
       </c>
-      <c r="U24" s="10">
+      <c r="V24" s="10">
         <f t="shared" si="0"/>
         <v>0.26513169494574229</v>
       </c>
-      <c r="V24" s="10">
+      <c r="W24" s="10">
         <v>5249648</v>
       </c>
-      <c r="W24" s="6">
+      <c r="X24" s="6">
         <f t="shared" si="1"/>
         <v>8.5755806134548782E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -2447,28 +2523,32 @@
       <c r="N25" s="10">
         <v>10167834374.8186</v>
       </c>
-      <c r="R25" s="10">
+      <c r="O25" s="10">
+        <f t="shared" si="2"/>
+        <v>4.9006840907293875E-2</v>
+      </c>
+      <c r="S25" s="10">
         <v>6.5285764585625383</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <v>5.4966189729517829</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
         <v>56273585276.137863</v>
       </c>
-      <c r="U25" s="10">
+      <c r="V25" s="10">
         <f t="shared" si="0"/>
         <v>0.27122694363910937</v>
       </c>
-      <c r="V25" s="10">
+      <c r="W25" s="10">
         <v>5241405</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="6">
         <f t="shared" si="1"/>
         <v>-1.5702005163012835E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -2508,28 +2588,32 @@
       <c r="N26" s="10">
         <v>4188736491.2936802</v>
       </c>
-      <c r="R26" s="10">
+      <c r="O26" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8375814071146818E-2</v>
+      </c>
+      <c r="S26" s="10">
         <v>7.0627675253800382</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T26" s="10">
         <v>5.2349024756189051</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
         <v>61449260893.520515</v>
       </c>
-      <c r="U26" s="10">
+      <c r="V26" s="10">
         <f t="shared" si="0"/>
         <v>0.26957537083932959</v>
       </c>
-      <c r="V26" s="10">
+      <c r="W26" s="10">
         <v>5232722</v>
       </c>
-      <c r="W26" s="6">
+      <c r="X26" s="6">
         <f t="shared" si="1"/>
         <v>-1.6566168803975271E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -2569,28 +2653,32 @@
       <c r="N27" s="10">
         <v>9433199804.7764702</v>
       </c>
-      <c r="R27" s="10">
+      <c r="O27" s="10">
+        <f t="shared" si="2"/>
+        <v>4.548829363247562E-2</v>
+      </c>
+      <c r="S27" s="10">
         <v>7.1649327302817545</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="10">
         <v>5.0762883746658067</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
         <v>54302847656.748817</v>
       </c>
-      <c r="U27" s="10">
+      <c r="V27" s="10">
         <f t="shared" si="0"/>
         <v>0.26185641462179476</v>
       </c>
-      <c r="V27" s="10">
+      <c r="W27" s="10">
         <v>5270072</v>
       </c>
-      <c r="W27" s="6">
+      <c r="X27" s="6">
         <f t="shared" si="1"/>
         <v>7.137776476564205E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -2630,28 +2718,32 @@
       <c r="N28" s="10">
         <v>7357578652.5699997</v>
       </c>
-      <c r="R28" s="10">
+      <c r="O28" s="10">
+        <f t="shared" si="2"/>
+        <v>3.5136068505345688E-2</v>
+      </c>
+      <c r="S28" s="10">
         <v>7.6405463055346621</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>4.8300206490015807</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
         <v>51653391356.926086</v>
       </c>
-      <c r="U28" s="10">
+      <c r="V28" s="10">
         <f t="shared" si="0"/>
         <v>0.24667043098702626</v>
       </c>
-      <c r="V28" s="10">
+      <c r="W28" s="10">
         <v>5323403</v>
       </c>
-      <c r="W28" s="6">
+      <c r="X28" s="6">
         <f t="shared" si="1"/>
         <v>1.0119596089009789E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -2691,28 +2783,32 @@
       <c r="N29" s="10">
         <v>8088661929.8802996</v>
       </c>
-      <c r="R29" s="10">
+      <c r="O29" s="10">
+        <f t="shared" si="2"/>
+        <v>3.8921792421810694E-2</v>
+      </c>
+      <c r="S29" s="10">
         <v>8.2407100267253419</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>4.7646730536694264</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
         <v>53784174394.797058</v>
       </c>
-      <c r="U29" s="10">
+      <c r="V29" s="10">
         <f t="shared" si="0"/>
         <v>0.25880380333854991</v>
       </c>
-      <c r="V29" s="10">
+      <c r="W29" s="10">
         <v>5324486</v>
       </c>
-      <c r="W29" s="6">
+      <c r="X29" s="6">
         <f t="shared" si="1"/>
         <v>2.0344129497616468E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -2752,28 +2848,32 @@
       <c r="N30" s="10">
         <v>1699914616.6024201</v>
       </c>
-      <c r="R30" s="10">
+      <c r="O30" s="10">
+        <f t="shared" si="2"/>
+        <v>9.0987269579849133E-3</v>
+      </c>
+      <c r="S30" s="10">
         <v>8.7283415459146561</v>
       </c>
-      <c r="S30" s="10">
+      <c r="T30" s="10">
         <v>4.5207765347372382</v>
       </c>
-      <c r="T30" s="10">
+      <c r="U30" s="10">
         <v>52229767772.752686</v>
       </c>
-      <c r="U30" s="10">
+      <c r="V30" s="10">
         <f t="shared" si="0"/>
         <v>0.2795578033166492</v>
       </c>
-      <c r="V30" s="10">
+      <c r="W30" s="10">
         <v>5337336</v>
       </c>
-      <c r="W30" s="6">
+      <c r="X30" s="6">
         <f t="shared" si="1"/>
         <v>2.4133784932479866E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -2811,22 +2911,26 @@
       <c r="N31" s="10">
         <v>10850612308.2062</v>
       </c>
-      <c r="T31" s="10">
+      <c r="O31" s="10">
+        <f t="shared" si="2"/>
+        <v>5.5618417948625633E-2</v>
+      </c>
+      <c r="U31" s="10">
         <v>50684051705.031654</v>
       </c>
-      <c r="U31" s="10">
+      <c r="V31" s="10">
         <f t="shared" si="0"/>
         <v>0.25979794420709773</v>
       </c>
-      <c r="V31" s="10">
+      <c r="W31" s="10">
         <v>5388390</v>
       </c>
-      <c r="W31" s="6">
+      <c r="X31" s="6">
         <f t="shared" si="1"/>
         <v>9.5654461326774264E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -2864,22 +2968,26 @@
       <c r="N32" s="10">
         <v>11234740946.094101</v>
       </c>
-      <c r="T32" s="10">
+      <c r="O32" s="10">
+        <f t="shared" si="2"/>
+        <v>5.2033516211752617E-2</v>
+      </c>
+      <c r="U32" s="10">
         <v>55863209228.707176</v>
       </c>
-      <c r="U32" s="10">
+      <c r="V32" s="10">
         <f t="shared" si="0"/>
         <v>0.25872952629611229</v>
       </c>
-      <c r="V32" s="10">
+      <c r="W32" s="10">
         <v>5418917</v>
       </c>
-      <c r="W32" s="6">
+      <c r="X32" s="6">
         <f t="shared" si="1"/>
         <v>5.6653286046481413E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -2917,26 +3025,30 @@
       <c r="N33" s="10">
         <v>8493644233.8442698</v>
       </c>
-      <c r="T33" s="10">
+      <c r="O33" s="10">
+        <f t="shared" si="2"/>
+        <v>3.4636002257523286E-2</v>
+      </c>
+      <c r="U33" s="10">
         <v>64170195467.845688</v>
       </c>
-      <c r="U33" s="10">
+      <c r="V33" s="10">
         <f t="shared" si="0"/>
         <v>0.26167790572552074</v>
       </c>
-      <c r="V33" s="10">
+      <c r="W33" s="10">
         <v>5403502</v>
       </c>
-      <c r="W33" s="6">
+      <c r="X33" s="6">
         <f t="shared" si="1"/>
         <v>-2.8446643489833854E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V34" s="10">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="10">
         <v>5376592</v>
       </c>
-      <c r="W34" s="6">
+      <c r="X34" s="6">
         <f t="shared" si="1"/>
         <v>-4.9801036438961253E-3</v>
       </c>
@@ -2951,10 +3063,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX34"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2963,12 +3075,12 @@
     <col min="11" max="11" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>51</v>
@@ -3004,41 +3116,43 @@
         <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="Y1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-      <c r="AI1" s="3"/>
+      <c r="AF1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
@@ -3049,8 +3163,9 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
-    </row>
-    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT1" s="3"/>
+    </row>
+    <row r="2" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1987</v>
       </c>
@@ -3079,14 +3194,14 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="R2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="AB2" s="3"/>
+      <c r="Y2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="AF2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
@@ -3097,8 +3212,9 @@
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
-    </row>
-    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT2" s="3"/>
+    </row>
+    <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1988</v>
       </c>
@@ -3126,17 +3242,17 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="R3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="AB3" s="4"/>
+      <c r="Y3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c r="AI3" s="4"/>
+      <c r="AF3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
@@ -3147,8 +3263,9 @@
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
-    </row>
-    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT3" s="4"/>
+    </row>
+    <row r="4" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1989</v>
       </c>
@@ -3176,21 +3293,21 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="6"/>
-      <c r="T4" s="10">
+      <c r="O4" s="6"/>
+      <c r="U4" s="10">
         <v>20411280639.514965</v>
       </c>
-      <c r="U4" s="10">
-        <f>T4/B4</f>
+      <c r="V4" s="10">
+        <f>U4/B4</f>
         <v>0.24678379478486878</v>
       </c>
-      <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="AB4" s="4"/>
+      <c r="Y4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-      <c r="AI4" s="4"/>
+      <c r="AF4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
@@ -3201,8 +3318,9 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
-    </row>
-    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT4" s="4"/>
+    </row>
+    <row r="5" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1990</v>
       </c>
@@ -3227,24 +3345,24 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>1.398169569006271</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>7.3443035770495531</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <v>25474828242.897945</v>
       </c>
-      <c r="U5" s="10">
-        <f t="shared" ref="U5:U31" si="0">T5/B5</f>
+      <c r="V5" s="10">
+        <f t="shared" ref="V5:V31" si="0">U5/B5</f>
         <v>0.31273989559368898</v>
       </c>
-      <c r="V5" s="10">
+      <c r="W5" s="10">
         <v>24575823</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1991</v>
       </c>
@@ -3276,30 +3394,30 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="10">
+      <c r="R6" s="4"/>
+      <c r="S6" s="10">
         <v>1.3222304487626926</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>8.053377958609099</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>23825513110.973049</v>
       </c>
-      <c r="U6" s="10">
+      <c r="V6" s="10">
         <f t="shared" si="0"/>
         <v>0.3075666183016087</v>
       </c>
-      <c r="V6" s="10">
+      <c r="W6" s="10">
         <v>24582836</v>
       </c>
-      <c r="W6" s="10">
-        <f>(V6-V5)/V5</f>
+      <c r="X6" s="10">
+        <f>(W6-W5)/W5</f>
         <v>2.8536175573855657E-4</v>
       </c>
-      <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -3326,8 +3444,9 @@
       <c r="AV6" s="10"/>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
-    </row>
-    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AY6" s="10"/>
+    </row>
+    <row r="7" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1992</v>
       </c>
@@ -3367,32 +3486,35 @@
       <c r="N7" s="10">
         <v>200000000</v>
       </c>
-      <c r="R7" s="10">
+      <c r="O7" s="10">
+        <f>N7/B7</f>
+        <v>2.7048140904346409E-3</v>
+      </c>
+      <c r="S7" s="10">
         <v>1.4036515074857732</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>8.9122017145099228</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>18566517337.038471</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <f t="shared" si="0"/>
         <v>0.25109488851760353</v>
       </c>
-      <c r="V7" s="10">
+      <c r="W7" s="10">
         <v>24636767</v>
       </c>
-      <c r="W7" s="10">
-        <f t="shared" ref="W7:W34" si="1">(V7-V6)/V6</f>
+      <c r="X7" s="10">
+        <f t="shared" ref="X7:X34" si="1">(W7-W6)/W6</f>
         <v>2.1938477724864616E-3</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="AB7" s="4"/>
+      <c r="Y7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AI7" s="4"/>
+      <c r="AF7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
@@ -3403,8 +3525,9 @@
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
-    </row>
-    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT7" s="4"/>
+    </row>
+    <row r="8" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1993</v>
       </c>
@@ -3447,39 +3570,43 @@
       <c r="N8" s="10">
         <v>200000000</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="10">
+        <f t="shared" ref="O8:O33" si="2">N8/B8</f>
+        <v>3.0465253205148608E-3</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="10">
+      <c r="R8" s="4"/>
+      <c r="S8" s="10">
         <v>1.3907284570632643</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>9.6139446601772693</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>12865006816.720989</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="10">
         <f t="shared" si="0"/>
         <v>0.19596784507868389</v>
       </c>
-      <c r="V8" s="10">
+      <c r="W8" s="10">
         <v>24679622</v>
       </c>
-      <c r="W8" s="10">
+      <c r="X8" s="10">
         <f t="shared" si="1"/>
         <v>1.7394733651537964E-3</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="Y8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AI8" s="4"/>
+      <c r="AF8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
-    </row>
-    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1994</v>
       </c>
@@ -3522,28 +3649,32 @@
       <c r="N9" s="10">
         <v>159000000</v>
       </c>
-      <c r="R9" s="10">
+      <c r="O9" s="10">
+        <f t="shared" si="2"/>
+        <v>3.0257154327676039E-3</v>
+      </c>
+      <c r="S9" s="10">
         <v>1.2847418677181561</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>10.579489228613854</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <v>10101667234.006784</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="10">
         <f t="shared" si="0"/>
         <v>0.19223126067054819</v>
       </c>
-      <c r="V9" s="10">
+      <c r="W9" s="10">
         <v>24709107</v>
       </c>
-      <c r="W9" s="10">
+      <c r="X9" s="10">
         <f t="shared" si="1"/>
         <v>1.194710356584878E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1995</v>
       </c>
@@ -3586,28 +3717,32 @@
       <c r="N10" s="10">
         <v>267000000</v>
       </c>
-      <c r="R10" s="10">
+      <c r="O10" s="10">
+        <f t="shared" si="2"/>
+        <v>5.5378257354042467E-3</v>
+      </c>
+      <c r="S10" s="10">
         <v>1.1662452202321363</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>9.5732660547618682</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <v>10755223492.708584</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <f t="shared" si="0"/>
         <v>0.22307323388743802</v>
       </c>
-      <c r="V10" s="10">
+      <c r="W10" s="10">
         <v>24674281</v>
       </c>
-      <c r="W10" s="10">
+      <c r="X10" s="10">
         <f t="shared" si="1"/>
         <v>-1.4094398474214385E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1996</v>
       </c>
@@ -3650,28 +3785,32 @@
       <c r="N11" s="10">
         <v>521000000</v>
       </c>
-      <c r="R11" s="10">
+      <c r="O11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1692604919387277E-2</v>
+      </c>
+      <c r="S11" s="10">
         <v>1.1666778339232911</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>13.521350220204065</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <v>8718922216.076313</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="10">
         <f t="shared" si="0"/>
         <v>0.19567545642120715</v>
       </c>
-      <c r="V11" s="10">
+      <c r="W11" s="10">
         <v>24307974</v>
       </c>
-      <c r="W11" s="10">
+      <c r="X11" s="10">
         <f t="shared" si="1"/>
         <v>-1.4845701076355579E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1997</v>
       </c>
@@ -3714,28 +3853,32 @@
       <c r="N12" s="10">
         <v>623000000</v>
       </c>
-      <c r="R12" s="10">
+      <c r="O12" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2422632772386505E-2</v>
+      </c>
+      <c r="S12" s="10">
         <v>1.2031249983787424</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>15.836266912599958</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <v>5530702891.3489437</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="10">
         <f t="shared" si="0"/>
         <v>0.11028232904077719</v>
       </c>
-      <c r="V12" s="10">
+      <c r="W12" s="10">
         <v>23886291</v>
       </c>
-      <c r="W12" s="10">
+      <c r="X12" s="10">
         <f t="shared" si="1"/>
         <v>-1.7347517320859401E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1998</v>
       </c>
@@ -3778,28 +3921,32 @@
       <c r="N13" s="10">
         <v>743000000</v>
       </c>
-      <c r="R13" s="10">
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>1.7739792191141392E-2</v>
+      </c>
+      <c r="S13" s="10">
         <v>1.2621487326526579</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>17.241638960647798</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <v>6136685429.6381559</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <f t="shared" si="0"/>
         <v>0.14651887518732989</v>
       </c>
-      <c r="V13" s="10">
+      <c r="W13" s="10">
         <v>23452799</v>
       </c>
-      <c r="W13" s="10">
+      <c r="X13" s="10">
         <f t="shared" si="1"/>
         <v>-1.8148150334432414E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1999</v>
       </c>
@@ -3842,28 +3989,32 @@
       <c r="N14" s="10">
         <v>496000000</v>
       </c>
-      <c r="R14" s="10">
+      <c r="O14" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5705825309174637E-2</v>
+      </c>
+      <c r="S14" s="10">
         <v>1.2838174173669095</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>17.438235704648026</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>9634779695.0913048</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10">
         <f t="shared" si="0"/>
         <v>0.30508501367638485</v>
       </c>
-      <c r="V14" s="10">
+      <c r="W14" s="10">
         <v>22982373</v>
       </c>
-      <c r="W14" s="10">
+      <c r="X14" s="10">
         <f t="shared" si="1"/>
         <v>-2.0058416055158276E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -3906,28 +4057,32 @@
       <c r="N15" s="10">
         <v>595000000</v>
       </c>
-      <c r="R15" s="10">
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9032979197986345E-2</v>
+      </c>
+      <c r="S15" s="10">
         <v>1.4031228982060771</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>18.079162019980267</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>9950812901.2878761</v>
       </c>
-      <c r="U15" s="10">
+      <c r="V15" s="10">
         <f t="shared" si="0"/>
         <v>0.3183085965601114</v>
       </c>
-      <c r="V15" s="10">
+      <c r="W15" s="10">
         <v>23221521</v>
       </c>
-      <c r="W15" s="10">
+      <c r="X15" s="10">
         <f t="shared" si="1"/>
         <v>1.040571397914393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
@@ -3970,28 +4125,32 @@
       <c r="N16" s="10">
         <v>792000000</v>
       </c>
-      <c r="R16" s="10">
+      <c r="O16" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0857308410665177E-2</v>
+      </c>
+      <c r="S16" s="10">
         <v>1.5623437745038411</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>19.709727261679486</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <v>12829148461.379789</v>
       </c>
-      <c r="U16" s="10">
+      <c r="V16" s="10">
         <f t="shared" si="0"/>
         <v>0.33785543700152637</v>
       </c>
-      <c r="V16" s="10">
+      <c r="W16" s="10">
         <v>22741141</v>
       </c>
-      <c r="W16" s="10">
+      <c r="X16" s="10">
         <f t="shared" si="1"/>
         <v>-2.0686844759221414E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -4034,28 +4193,32 @@
       <c r="N17" s="10">
         <v>693000000</v>
       </c>
-      <c r="R17" s="10">
+      <c r="O17" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6363020523959396E-2</v>
+      </c>
+      <c r="S17" s="10">
         <v>1.6518225960967032</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>19.295738944069321</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <v>15969731152.472269</v>
       </c>
-      <c r="U17" s="10">
+      <c r="V17" s="10">
         <f t="shared" si="0"/>
         <v>0.37707509178934701</v>
       </c>
-      <c r="V17" s="10">
+      <c r="W17" s="10">
         <v>22576060</v>
       </c>
-      <c r="W17" s="10">
+      <c r="X17" s="10">
         <f t="shared" si="1"/>
         <v>-7.2591344471238271E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -4098,28 +4261,32 @@
       <c r="N18" s="10">
         <v>1424000000</v>
       </c>
-      <c r="R18" s="10">
+      <c r="O18" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8432121729493342E-2</v>
+      </c>
+      <c r="S18" s="10">
         <v>1.7274507137712745</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>17.801096510698748</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
         <v>22656155482.272133</v>
       </c>
-      <c r="U18" s="10">
+      <c r="V18" s="10">
         <f t="shared" si="0"/>
         <v>0.45236135575441661</v>
       </c>
-      <c r="V18" s="10">
+      <c r="W18" s="10">
         <v>22444882</v>
       </c>
-      <c r="W18" s="10">
+      <c r="X18" s="10">
         <f t="shared" si="1"/>
         <v>-5.8104912903314395E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -4162,28 +4329,32 @@
       <c r="N19" s="10">
         <v>1715000000</v>
       </c>
-      <c r="R19" s="10">
+      <c r="O19" s="10">
+        <f t="shared" si="2"/>
+        <v>2.6458004617490778E-2</v>
+      </c>
+      <c r="S19" s="10">
         <v>1.9996993427395031</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <v>15.004120199967039</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
         <v>31016633663.366337</v>
       </c>
-      <c r="U19" s="10">
+      <c r="V19" s="10">
         <f t="shared" si="0"/>
         <v>0.4785062604573565</v>
       </c>
-      <c r="V19" s="10">
+      <c r="W19" s="10">
         <v>22288742</v>
       </c>
-      <c r="W19" s="10">
+      <c r="X19" s="10">
         <f t="shared" si="1"/>
         <v>-6.956597054063372E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -4226,28 +4397,32 @@
       <c r="N20" s="10">
         <v>7808000000</v>
       </c>
-      <c r="R20" s="10">
+      <c r="O20" s="10">
+        <f t="shared" si="2"/>
+        <v>9.07295970033173E-2</v>
+      </c>
+      <c r="S20" s="10">
         <v>2.1382262847710733</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>13.337959152937126</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
         <v>46802970297.029701</v>
       </c>
-      <c r="U20" s="10">
+      <c r="V20" s="10">
         <f t="shared" si="0"/>
         <v>0.54385433319771193</v>
       </c>
-      <c r="V20" s="10">
+      <c r="W20" s="10">
         <v>22163073</v>
       </c>
-      <c r="W20" s="10">
+      <c r="X20" s="10">
         <f t="shared" si="1"/>
         <v>-5.6382275859265633E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -4290,28 +4465,32 @@
       <c r="N21" s="10">
         <v>5604000000</v>
       </c>
-      <c r="R21" s="10">
+      <c r="O21" s="10">
+        <f t="shared" si="2"/>
+        <v>5.205859954159324E-2</v>
+      </c>
+      <c r="S21" s="10">
         <v>2.4623543618507986</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>12.362277664788106</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
         <v>58460662211.421631</v>
       </c>
-      <c r="U21" s="10">
+      <c r="V21" s="10">
         <f t="shared" si="0"/>
         <v>0.54307284136344602</v>
       </c>
-      <c r="V21" s="10">
+      <c r="W21" s="10">
         <v>22035067</v>
       </c>
-      <c r="W21" s="10">
+      <c r="X21" s="10">
         <f t="shared" si="1"/>
         <v>-5.7756431159162814E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -4354,28 +4533,32 @@
       <c r="N22" s="10">
         <v>10193000000</v>
       </c>
-      <c r="R22" s="10">
+      <c r="O22" s="10">
+        <f t="shared" si="2"/>
+        <v>7.1489888573622928E-2</v>
+      </c>
+      <c r="S22" s="10">
         <v>2.6811417404604261</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="10">
         <v>11.695227030690289</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
         <v>23248408460.827602</v>
       </c>
-      <c r="U22" s="10">
+      <c r="V22" s="10">
         <f t="shared" si="0"/>
         <v>0.16305563920127908</v>
       </c>
-      <c r="V22" s="10">
+      <c r="W22" s="10">
         <v>21912056</v>
       </c>
-      <c r="W22" s="10">
+      <c r="X22" s="10">
         <f t="shared" si="1"/>
         <v>-5.5825108224086635E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -4418,28 +4601,32 @@
       <c r="N23" s="10">
         <v>10700000000</v>
       </c>
-      <c r="R23" s="10">
+      <c r="O23" s="10">
+        <f t="shared" si="2"/>
+        <v>5.9505010394549439E-2</v>
+      </c>
+      <c r="S23" s="10">
         <v>2.8940850335767054</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>11.611955178465724</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
         <v>28390543878.219669</v>
       </c>
-      <c r="U23" s="10">
+      <c r="V23" s="10">
         <f t="shared" si="0"/>
         <v>0.15788594472713771</v>
       </c>
-      <c r="V23" s="10">
+      <c r="W23" s="10">
         <v>21800656</v>
       </c>
-      <c r="W23" s="10">
+      <c r="X23" s="10">
         <f t="shared" si="1"/>
         <v>-5.0839592596879091E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -4482,28 +4669,32 @@
       <c r="N24" s="10">
         <v>4769000000</v>
       </c>
-      <c r="R24" s="10">
+      <c r="O24" s="10">
+        <f t="shared" si="2"/>
+        <v>4.0721212028222792E-2</v>
+      </c>
+      <c r="S24" s="10">
         <v>2.9221189589358247</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>11.918050443787834</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
         <v>36608012450.424217</v>
       </c>
-      <c r="U24" s="10">
+      <c r="V24" s="10">
         <f t="shared" si="0"/>
         <v>0.31258600061345027</v>
       </c>
-      <c r="V24" s="10">
+      <c r="W24" s="10">
         <v>21737545</v>
       </c>
-      <c r="W24" s="10">
+      <c r="X24" s="10">
         <f t="shared" si="1"/>
         <v>-2.894912887025051E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -4546,28 +4737,32 @@
       <c r="N25" s="10">
         <v>6451000000</v>
       </c>
-      <c r="R25" s="10">
+      <c r="O25" s="10">
+        <f t="shared" si="2"/>
+        <v>4.7429235481486011E-2</v>
+      </c>
+      <c r="S25" s="10">
         <v>2.6548011733029564</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <v>11.489291842311522</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
         <v>38171818295.582535</v>
       </c>
-      <c r="U25" s="10">
+      <c r="V25" s="10">
         <f t="shared" si="0"/>
         <v>0.28064798615682529</v>
       </c>
-      <c r="V25" s="10">
+      <c r="W25" s="10">
         <v>21666236</v>
       </c>
-      <c r="W25" s="10">
+      <c r="X25" s="10">
         <f t="shared" si="1"/>
         <v>-3.2804532434550452E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -4610,28 +4805,32 @@
       <c r="N26" s="10">
         <v>7207000000</v>
       </c>
-      <c r="R26" s="10">
+      <c r="O26" s="10">
+        <f t="shared" si="2"/>
+        <v>4.4171454417761359E-2</v>
+      </c>
+      <c r="S26" s="10">
         <v>2.9910054407248978</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T26" s="10">
         <v>10.905985185793135</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
         <v>33891530088.827724</v>
       </c>
-      <c r="U26" s="10">
+      <c r="V26" s="10">
         <f t="shared" si="0"/>
         <v>0.20772001893531863</v>
       </c>
-      <c r="V26" s="10">
+      <c r="W26" s="10">
         <v>21621329</v>
       </c>
-      <c r="W26" s="10">
+      <c r="X26" s="10">
         <f t="shared" si="1"/>
         <v>-2.0726719675720324E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -4674,28 +4873,32 @@
       <c r="N27" s="10">
         <v>8175000000</v>
       </c>
-      <c r="R27" s="10">
+      <c r="O27" s="10">
+        <f t="shared" si="2"/>
+        <v>4.6506632523391635E-2</v>
+      </c>
+      <c r="S27" s="10">
         <v>3.156529602663543</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="10">
         <v>10.798888905693097</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
         <v>17884778786.374687</v>
       </c>
-      <c r="U27" s="10">
+      <c r="V27" s="10">
         <f t="shared" si="0"/>
         <v>0.10174444462141624</v>
       </c>
-      <c r="V27" s="10">
+      <c r="W27" s="10">
         <v>21394384</v>
       </c>
-      <c r="W27" s="10">
+      <c r="X27" s="10">
         <f t="shared" si="1"/>
         <v>-1.0496348304953872E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -4738,28 +4941,32 @@
       <c r="N28" s="10">
         <v>4509000000</v>
       </c>
-      <c r="R28" s="10">
+      <c r="O28" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4597656425957449E-2</v>
+      </c>
+      <c r="S28" s="10">
         <v>3.3872290324936438</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>10.693525239280147</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
         <v>14504250458.921387</v>
       </c>
-      <c r="U28" s="10">
+      <c r="V28" s="10">
         <f t="shared" si="0"/>
         <v>7.9124100577641146E-2</v>
       </c>
-      <c r="V28" s="10">
+      <c r="W28" s="10">
         <v>21540098</v>
       </c>
-      <c r="W28" s="10">
+      <c r="X28" s="10">
         <f t="shared" si="1"/>
         <v>6.8108527920224295E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -4802,28 +5009,32 @@
       <c r="N29" s="10">
         <v>847000000</v>
       </c>
-      <c r="R29" s="10">
+      <c r="O29" s="10">
+        <f t="shared" si="2"/>
+        <v>6.3444071673656116E-3</v>
+      </c>
+      <c r="S29" s="10">
         <v>3.5442821519404593</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>10.77895315290562</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
         <v>20280807630.140152</v>
       </c>
-      <c r="U29" s="10">
+      <c r="V29" s="10">
         <f t="shared" si="0"/>
         <v>0.15191228015185876</v>
       </c>
-      <c r="V29" s="10">
+      <c r="W29" s="10">
         <v>20895181</v>
       </c>
-      <c r="W29" s="10">
+      <c r="X29" s="10">
         <f t="shared" si="1"/>
         <v>-2.9940300178764274E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -4866,22 +5077,26 @@
       <c r="N30" s="10">
         <v>3050000000</v>
       </c>
-      <c r="T30" s="10">
+      <c r="O30" s="10">
+        <f t="shared" si="2"/>
+        <v>3.3505084624730452E-2</v>
+      </c>
+      <c r="U30" s="10">
         <v>22378574705.037487</v>
       </c>
-      <c r="U30" s="10">
+      <c r="V30" s="10">
         <f t="shared" si="0"/>
         <v>0.24583476697479784</v>
       </c>
-      <c r="V30" s="10">
+      <c r="W30" s="10">
         <v>20885174</v>
       </c>
-      <c r="W30" s="10">
+      <c r="X30" s="10">
         <f t="shared" si="1"/>
         <v>-4.7891425300407786E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -4921,22 +5136,26 @@
       <c r="N31" s="10">
         <v>3441000000</v>
       </c>
-      <c r="T31" s="10">
+      <c r="O31" s="10">
+        <f t="shared" si="2"/>
+        <v>3.6858908209931637E-2</v>
+      </c>
+      <c r="U31" s="10">
         <v>24556644179.334938</v>
       </c>
-      <c r="U31" s="10">
+      <c r="V31" s="10">
         <f t="shared" si="0"/>
         <v>0.26304303799769208</v>
       </c>
-      <c r="V31" s="10">
+      <c r="W31" s="10">
         <v>20684320</v>
       </c>
-      <c r="W31" s="10">
+      <c r="X31" s="10">
         <f t="shared" si="1"/>
         <v>-9.6170613661155039E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -4976,15 +5195,19 @@
       <c r="N32" s="10">
         <v>2827000000</v>
       </c>
-      <c r="V32" s="10">
+      <c r="O32" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5198244501625736E-2</v>
+      </c>
+      <c r="W32" s="10">
         <v>20505794</v>
       </c>
-      <c r="W32" s="10">
+      <c r="X32" s="10">
         <f t="shared" si="1"/>
         <v>-8.6309823093048254E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -5024,19 +5247,23 @@
       <c r="N33" s="10">
         <v>2476000000</v>
       </c>
-      <c r="V33" s="10">
+      <c r="O33" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8924979472875816E-2</v>
+      </c>
+      <c r="W33" s="10">
         <v>20275456</v>
       </c>
-      <c r="W33" s="10">
+      <c r="X33" s="10">
         <f t="shared" si="1"/>
         <v>-1.1232825220032933E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V34" s="10">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W34" s="10">
         <v>20037572</v>
       </c>
-      <c r="W34" s="10">
+      <c r="X34" s="10">
         <f t="shared" si="1"/>
         <v>-1.1732609121096955E-2</v>
       </c>
@@ -5051,23 +5278,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="14" width="16.7109375" customWidth="1"/>
+    <col min="13" max="15" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>51</v>
@@ -5103,36 +5330,38 @@
         <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -5150,8 +5379,9 @@
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
-    </row>
-    <row r="2" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP1" s="3"/>
+    </row>
+    <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1987</v>
       </c>
@@ -5195,8 +5425,9 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-    </row>
-    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP2" s="3"/>
+    </row>
+    <row r="3" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1988</v>
       </c>
@@ -5240,8 +5471,9 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-    </row>
-    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP3" s="3"/>
+    </row>
+    <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1989</v>
       </c>
@@ -5285,8 +5517,9 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-    </row>
-    <row r="5" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP4" s="3"/>
+    </row>
+    <row r="5" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1990</v>
       </c>
@@ -5312,26 +5545,26 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="10">
+      <c r="R5" s="4"/>
+      <c r="S5" s="10">
         <v>1.1147625839904094</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>15.913916232387571</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <v>1064047261.4170496</v>
       </c>
-      <c r="U5" s="10">
-        <f>T5/B5</f>
+      <c r="V5" s="10">
+        <f>U5/B5</f>
         <v>0.47147684356986685</v>
       </c>
-      <c r="V5" s="10">
+      <c r="W5" s="10">
         <v>1464013</v>
       </c>
-      <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -5350,8 +5583,9 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
-    </row>
-    <row r="6" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP5" s="4"/>
+    </row>
+    <row r="6" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1991</v>
       </c>
@@ -5381,30 +5615,30 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="10">
+      <c r="R6" s="4"/>
+      <c r="S6" s="10">
         <v>0.96541658396414676</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>17.444304329550231</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>822842147.62611079</v>
       </c>
-      <c r="U6" s="10">
-        <f t="shared" ref="U6:U33" si="0">T6/B6</f>
+      <c r="V6" s="10">
+        <f t="shared" ref="V6:V33" si="0">U6/B6</f>
         <v>0.39779144183711884</v>
       </c>
-      <c r="V6" s="10">
+      <c r="W6" s="10">
         <v>1449791</v>
       </c>
-      <c r="W6" s="4">
-        <f>(V6-V5)/V5</f>
+      <c r="X6" s="4">
+        <f>(W6-W5)/W5</f>
         <v>-9.7143946126161448E-3</v>
       </c>
-      <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -5422,8 +5656,9 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
-    </row>
-    <row r="7" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1992</v>
       </c>
@@ -5452,28 +5687,32 @@
       <c r="N7" s="10">
         <v>2400000</v>
       </c>
-      <c r="R7" s="10">
+      <c r="O7" s="3">
+        <f t="shared" ref="O3:O33" si="1">N7/B7</f>
+        <v>1.8859362850132629E-3</v>
+      </c>
+      <c r="S7" s="10">
         <v>1.1303900016399213</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>28.098622834295867</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>20759024.88153455</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <f t="shared" si="0"/>
         <v>1.6312582610657985E-2</v>
       </c>
-      <c r="V7" s="10">
+      <c r="W7" s="10">
         <v>1422553</v>
       </c>
-      <c r="W7" s="6">
-        <f t="shared" ref="W7:W34" si="1">(V7-V6)/V6</f>
+      <c r="X7" s="6">
+        <f t="shared" ref="X7:X34" si="2">(W7-W6)/W6</f>
         <v>-1.8787535582715027E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1993</v>
       </c>
@@ -5508,30 +5747,33 @@
       <c r="N8" s="10">
         <v>800000</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6593790805394835E-4</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="10">
+      <c r="R8" s="4"/>
+      <c r="S8" s="10">
         <v>1.9881964316026934</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>37.96664019062748</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>118596078.27635182</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="10">
         <f t="shared" si="0"/>
         <v>9.8722030338445052E-2</v>
       </c>
-      <c r="V8" s="10">
+      <c r="W8" s="10">
         <v>1387777</v>
       </c>
-      <c r="W8" s="6">
-        <f t="shared" si="1"/>
+      <c r="X8" s="6">
+        <f t="shared" si="2"/>
         <v>-2.4446189351117323E-2</v>
       </c>
-      <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
@@ -5545,8 +5787,9 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
-    </row>
-    <row r="9" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1994</v>
       </c>
@@ -5585,30 +5828,33 @@
       <c r="N9" s="10">
         <v>8000000</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0829162144210554E-3</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="10">
+      <c r="R9" s="4"/>
+      <c r="S9" s="10">
         <v>3.4040714727829928</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>39.607635206786853</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <v>367483712.71518803</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="10">
         <f t="shared" si="0"/>
         <v>0.27942157932635825</v>
       </c>
-      <c r="V9" s="10">
+      <c r="W9" s="10">
         <v>1352833</v>
       </c>
-      <c r="W9" s="6">
-        <f t="shared" si="1"/>
+      <c r="X9" s="6">
+        <f t="shared" si="2"/>
         <v>-2.5179837971086132E-2</v>
       </c>
-      <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
@@ -5618,8 +5864,9 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1995</v>
       </c>
@@ -5662,30 +5909,33 @@
       <c r="N10" s="10">
         <v>25320000</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7244228571446304E-2</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="10">
+      <c r="R10" s="4"/>
+      <c r="S10" s="10">
         <v>3.1142043829184649</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>39.471318108253911</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <v>305535833.98230761</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <f t="shared" si="0"/>
         <v>0.20808569344227423</v>
       </c>
-      <c r="V10" s="10">
+      <c r="W10" s="10">
         <v>1323039</v>
       </c>
-      <c r="W10" s="6">
-        <f t="shared" si="1"/>
+      <c r="X10" s="6">
+        <f t="shared" si="2"/>
         <v>-2.2023413089420497E-2</v>
       </c>
-      <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -5701,8 +5951,9 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-    </row>
-    <row r="11" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN10" s="4"/>
+    </row>
+    <row r="11" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1996</v>
       </c>
@@ -5745,28 +5996,32 @@
       <c r="N11" s="10">
         <v>17570000</v>
       </c>
-      <c r="R11" s="10">
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1002092685651881E-2</v>
+      </c>
+      <c r="S11" s="10">
         <v>3.1000627822249309</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>37.801738010943033</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <v>336887733.36228526</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="10">
         <f t="shared" si="0"/>
         <v>0.21095447166255205</v>
       </c>
-      <c r="V11" s="10">
+      <c r="W11" s="10">
         <v>1304929</v>
       </c>
-      <c r="W11" s="6">
-        <f t="shared" si="1"/>
+      <c r="X11" s="6">
+        <f t="shared" si="2"/>
         <v>-1.3688183039199903E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1997</v>
       </c>
@@ -5809,28 +6064,32 @@
       <c r="N12" s="10">
         <v>51940000</v>
       </c>
-      <c r="R12" s="10">
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1680536749125875E-2</v>
+      </c>
+      <c r="S12" s="10">
         <v>3.1168720814200999</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>20.633604246143637</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <v>381439049.4738701</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="10">
         <f t="shared" si="0"/>
         <v>0.23265679292276828</v>
       </c>
-      <c r="V12" s="10">
+      <c r="W12" s="10">
         <v>1293934</v>
       </c>
-      <c r="W12" s="6">
-        <f t="shared" si="1"/>
+      <c r="X12" s="6">
+        <f t="shared" si="2"/>
         <v>-8.4257457685437288E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1998</v>
       </c>
@@ -5873,28 +6132,32 @@
       <c r="N13" s="10">
         <v>220830000</v>
       </c>
-      <c r="R13" s="10">
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11661135191151291</v>
+      </c>
+      <c r="S13" s="10">
         <v>3.3206037916541411</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>28.492973671458572</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <v>429617443.01288402</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <f t="shared" si="0"/>
         <v>0.22686351869990384</v>
       </c>
-      <c r="V13" s="10">
+      <c r="W13" s="10">
         <v>1288701</v>
       </c>
-      <c r="W13" s="6">
-        <f t="shared" si="1"/>
+      <c r="X13" s="6">
+        <f t="shared" si="2"/>
         <v>-4.0442557348365528E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1999</v>
       </c>
@@ -5937,28 +6200,32 @@
       <c r="N14" s="10">
         <v>122040000</v>
       </c>
-      <c r="R14" s="10">
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6129058967258403E-2</v>
+      </c>
+      <c r="S14" s="10">
         <v>3.5989437532395896</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>25.135560608710861</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>383285988.36720502</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10">
         <f t="shared" si="0"/>
         <v>0.20768880470385789</v>
       </c>
-      <c r="V14" s="10">
+      <c r="W14" s="10">
         <v>1286416</v>
       </c>
-      <c r="W14" s="6">
-        <f t="shared" si="1"/>
+      <c r="X14" s="6">
+        <f t="shared" si="2"/>
         <v>-1.7731033032487753E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -6001,28 +6268,32 @@
       <c r="N15" s="10">
         <v>104188500</v>
       </c>
-      <c r="R15" s="10">
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4504331656011061E-2</v>
+      </c>
+      <c r="S15" s="10">
         <v>3.5461387122508237</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>25.377643504531722</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>348522591.42218494</v>
       </c>
-      <c r="U15" s="10">
+      <c r="V15" s="10">
         <f t="shared" si="0"/>
         <v>0.18232329779665896</v>
       </c>
-      <c r="V15" s="10">
+      <c r="W15" s="10">
         <v>1284759</v>
       </c>
-      <c r="W15" s="6">
-        <f t="shared" si="1"/>
+      <c r="X15" s="6">
+        <f t="shared" si="2"/>
         <v>-1.2880747751893634E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
@@ -6065,28 +6336,32 @@
       <c r="N16" s="10">
         <v>69868500</v>
       </c>
-      <c r="R16" s="10">
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2980674174369284E-2</v>
+      </c>
+      <c r="S16" s="10">
         <v>3.9877736330656317</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>26.144473455178417</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <v>335655604.79948115</v>
       </c>
-      <c r="U16" s="10">
+      <c r="V16" s="10">
         <f t="shared" si="0"/>
         <v>0.15844261915874178</v>
       </c>
-      <c r="V16" s="10">
+      <c r="W16" s="10">
         <v>1289577</v>
       </c>
-      <c r="W16" s="6">
-        <f t="shared" si="1"/>
+      <c r="X16" s="6">
+        <f t="shared" si="2"/>
         <v>3.750119672249815E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -6129,28 +6404,32 @@
       <c r="N17" s="10">
         <v>110725325.614409</v>
       </c>
-      <c r="R17" s="10">
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6594997489504852E-2</v>
+      </c>
+      <c r="S17" s="10">
         <v>4.9011217914992384</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>25.62058343902881</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <v>431509549.14101332</v>
       </c>
-      <c r="U17" s="10">
+      <c r="V17" s="10">
         <f t="shared" si="0"/>
         <v>0.18158615698219641</v>
       </c>
-      <c r="V17" s="10">
+      <c r="W17" s="10">
         <v>1293996</v>
       </c>
-      <c r="W17" s="6">
-        <f t="shared" si="1"/>
+      <c r="X17" s="6">
+        <f t="shared" si="2"/>
         <v>3.4267050358373326E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -6193,28 +6472,32 @@
       <c r="N18" s="10">
         <v>122852992.703235</v>
       </c>
-      <c r="R18" s="10">
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>4.37657009672658E-2</v>
+      </c>
+      <c r="S18" s="10">
         <v>5.3918189940536108</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>22.541356117069625</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
         <v>684688218.11773241</v>
       </c>
-      <c r="U18" s="10">
+      <c r="V18" s="10">
         <f t="shared" si="0"/>
         <v>0.24391640081846916</v>
       </c>
-      <c r="V18" s="10">
+      <c r="W18" s="10">
         <v>1298206</v>
       </c>
-      <c r="W18" s="6">
-        <f t="shared" si="1"/>
+      <c r="X18" s="6">
+        <f t="shared" si="2"/>
         <v>3.2534876460205441E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -6257,28 +6540,32 @@
       <c r="N19" s="10">
         <v>247140608.49588799</v>
       </c>
-      <c r="R19" s="10">
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9099020130309524E-2</v>
+      </c>
+      <c r="S19" s="10">
         <v>5.7850550122642197</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <v>15.854063018242122</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
         <v>819718811.50998211</v>
       </c>
-      <c r="U19" s="10">
+      <c r="V19" s="10">
         <f t="shared" si="0"/>
         <v>0.2291884243647643</v>
       </c>
-      <c r="V19" s="10">
+      <c r="W19" s="10">
         <v>1302805</v>
       </c>
-      <c r="W19" s="6">
-        <f t="shared" si="1"/>
+      <c r="X19" s="6">
+        <f t="shared" si="2"/>
         <v>3.542581069568312E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -6321,28 +6608,32 @@
       <c r="N20" s="10">
         <v>292073220.16472203</v>
       </c>
-      <c r="R20" s="10">
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9601063395835735E-2</v>
+      </c>
+      <c r="S20" s="10">
         <v>5.6634675198544064</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>15.846129491847396</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
         <v>1390336931.2077756</v>
       </c>
-      <c r="U20" s="10">
+      <c r="V20" s="10">
         <f t="shared" si="0"/>
         <v>0.28371502026701462</v>
       </c>
-      <c r="V20" s="10">
+      <c r="W20" s="10">
         <v>1307908</v>
       </c>
-      <c r="W20" s="6">
-        <f t="shared" si="1"/>
+      <c r="X20" s="6">
+        <f t="shared" si="2"/>
         <v>3.9169330790102897E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -6385,28 +6676,32 @@
       <c r="N21" s="10">
         <v>466531991.90172398</v>
       </c>
-      <c r="R21" s="10">
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>7.3073150316137037E-2</v>
+      </c>
+      <c r="S21" s="10">
         <v>6.4854641918986768</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>13.112270661504796</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
         <v>2142008324.1915929</v>
       </c>
-      <c r="U21" s="10">
+      <c r="V21" s="10">
         <f t="shared" si="0"/>
         <v>0.33550388605513048</v>
       </c>
-      <c r="V21" s="10">
+      <c r="W21" s="10">
         <v>1309974</v>
       </c>
-      <c r="W21" s="6">
-        <f t="shared" si="1"/>
+      <c r="X21" s="6">
+        <f t="shared" si="2"/>
         <v>1.5796218082617431E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -6449,28 +6744,32 @@
       <c r="N22" s="10">
         <v>667671562.13449502</v>
       </c>
-      <c r="R22" s="10">
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2523319771908151E-2</v>
+      </c>
+      <c r="S22" s="10">
         <v>6.7939791546916073</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="10">
         <v>13.140047473719903</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
         <v>3513216680.0017886</v>
       </c>
-      <c r="U22" s="10">
+      <c r="V22" s="10">
         <f t="shared" si="0"/>
         <v>0.38160998784675904</v>
       </c>
-      <c r="V22" s="10">
+      <c r="W22" s="10">
         <v>1312689</v>
       </c>
-      <c r="W22" s="6">
-        <f t="shared" si="1"/>
+      <c r="X22" s="6">
+        <f t="shared" si="2"/>
         <v>2.0725602187524335E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -6513,28 +6812,32 @@
       <c r="N23" s="10">
         <v>943733059.483284</v>
       </c>
-      <c r="R23" s="10">
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.092349209177821E-2</v>
+      </c>
+      <c r="S23" s="10">
         <v>7.0313194846622684</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>15.459272097053725</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
         <v>5109079535.404521</v>
       </c>
-      <c r="U23" s="10">
+      <c r="V23" s="10">
         <f t="shared" si="0"/>
         <v>0.43809481211344253</v>
       </c>
-      <c r="V23" s="10">
+      <c r="W23" s="10">
         <v>1311477</v>
       </c>
-      <c r="W23" s="6">
-        <f t="shared" si="1"/>
+      <c r="X23" s="6">
+        <f t="shared" si="2"/>
         <v>-9.232956168597436E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -6577,28 +6880,32 @@
       <c r="N24" s="10">
         <v>760040745.87232995</v>
       </c>
-      <c r="R24" s="10">
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>8.7886945524808899E-2</v>
+      </c>
+      <c r="S24" s="10">
         <v>7.0008353604743734</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>14.865103156409804</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
         <v>2924907365.6840272</v>
       </c>
-      <c r="U24" s="10">
+      <c r="V24" s="10">
         <f t="shared" si="0"/>
         <v>0.33822025425484886</v>
       </c>
-      <c r="V24" s="10">
+      <c r="W24" s="10">
         <v>1325019</v>
       </c>
-      <c r="W24" s="6">
-        <f t="shared" si="1"/>
+      <c r="X24" s="6">
+        <f t="shared" si="2"/>
         <v>1.0325762480012993E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -6641,28 +6948,32 @@
       <c r="N25" s="10">
         <v>529321391.64195901</v>
       </c>
-      <c r="R25" s="10">
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7160378454600418E-2</v>
+      </c>
+      <c r="S25" s="10">
         <v>7.6077417645403083</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <v>11.246341087659836</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
         <v>2404787233.330791</v>
       </c>
-      <c r="U25" s="10">
+      <c r="V25" s="10">
         <f t="shared" si="0"/>
         <v>0.25968825467941514</v>
       </c>
-      <c r="V25" s="10">
+      <c r="W25" s="10">
         <v>1379810</v>
       </c>
-      <c r="W25" s="6">
-        <f t="shared" si="1"/>
+      <c r="X25" s="6">
+        <f t="shared" si="2"/>
         <v>4.1351105153963827E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -6705,28 +7016,32 @@
       <c r="N26" s="10">
         <v>653219756.47224998</v>
       </c>
-      <c r="R26" s="10">
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4406683670536161E-2</v>
+      </c>
+      <c r="S26" s="10">
         <v>7.4358766488704209</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T26" s="10">
         <v>12.166890982503364</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
         <v>2710009559.7084465</v>
       </c>
-      <c r="U26" s="10">
+      <c r="V26" s="10">
         <f t="shared" si="0"/>
         <v>0.26720368869260586</v>
       </c>
-      <c r="V26" s="10">
+      <c r="W26" s="10">
         <v>1404032</v>
       </c>
-      <c r="W26" s="6">
-        <f t="shared" si="1"/>
+      <c r="X26" s="6">
+        <f t="shared" si="2"/>
         <v>1.7554590849464782E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -6769,28 +7084,32 @@
       <c r="N27" s="10">
         <v>496636701.12968701</v>
       </c>
-      <c r="R27" s="10">
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6767278776556717E-2</v>
+      </c>
+      <c r="S27" s="10">
         <v>7.4266804948119196</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="10">
         <v>12.207565953210553</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
         <v>2689651387.3816471</v>
       </c>
-      <c r="U27" s="10">
+      <c r="V27" s="10">
         <f t="shared" si="0"/>
         <v>0.25327905883577267</v>
       </c>
-      <c r="V27" s="10">
+      <c r="W27" s="10">
         <v>1401167</v>
       </c>
-      <c r="W27" s="6">
-        <f t="shared" si="1"/>
+      <c r="X27" s="6">
+        <f t="shared" si="2"/>
         <v>-2.0405517822955602E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -6833,28 +7152,32 @@
       <c r="N28" s="10">
         <v>346092394.39325601</v>
       </c>
-      <c r="R28" s="10">
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1119314812579624E-2</v>
+      </c>
+      <c r="S28" s="10">
         <v>7.9954250700296194</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>12.308690012970169</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
         <v>2476031166.9897666</v>
       </c>
-      <c r="U28" s="10">
+      <c r="V28" s="10">
         <f t="shared" si="0"/>
         <v>0.22263532692302038</v>
       </c>
-      <c r="V28" s="10">
+      <c r="W28" s="10">
         <v>1414215</v>
       </c>
-      <c r="W28" s="6">
-        <f t="shared" si="1"/>
+      <c r="X28" s="6">
+        <f t="shared" si="2"/>
         <v>9.3122375848132301E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -6897,28 +7220,32 @@
       <c r="N29" s="10">
         <v>406578406.69311202</v>
       </c>
-      <c r="R29" s="10">
+      <c r="O29" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5021142471952704E-2</v>
+      </c>
+      <c r="S29" s="10">
         <v>8.2734441014287015</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>11.987096774193548</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
         <v>2423121957.6466422</v>
       </c>
-      <c r="U29" s="10">
+      <c r="V29" s="10">
         <f t="shared" si="0"/>
         <v>0.20871865772673276</v>
       </c>
-      <c r="V29" s="10">
+      <c r="W29" s="10">
         <v>1411723</v>
       </c>
-      <c r="W29" s="6">
-        <f t="shared" si="1"/>
+      <c r="X29" s="6">
+        <f t="shared" si="2"/>
         <v>-1.7621083074355738E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -6961,22 +7288,26 @@
       <c r="N30" s="10">
         <v>184127986.314895</v>
       </c>
-      <c r="T30" s="10">
+      <c r="O30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7447369924132844E-2</v>
+      </c>
+      <c r="U30" s="10">
         <v>2187762845.6579294</v>
       </c>
-      <c r="U30" s="10">
+      <c r="V30" s="10">
         <f t="shared" si="0"/>
         <v>0.20730530126576219</v>
       </c>
-      <c r="V30" s="10">
+      <c r="W30" s="10">
         <v>1397974</v>
       </c>
-      <c r="W30" s="6">
-        <f t="shared" si="1"/>
+      <c r="X30" s="6">
+        <f t="shared" si="2"/>
         <v>-9.7391627110984241E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -7016,22 +7347,26 @@
       <c r="N31" s="10">
         <v>333733314.10460103</v>
       </c>
-      <c r="T31" s="10">
+      <c r="O31" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1645082206932428E-2</v>
+      </c>
+      <c r="U31" s="10">
         <v>1899939894.4656706</v>
       </c>
-      <c r="U31" s="10">
+      <c r="V31" s="10">
         <f t="shared" si="0"/>
         <v>0.1801550867341708</v>
       </c>
-      <c r="V31" s="10">
+      <c r="W31" s="10">
         <v>1373650</v>
       </c>
-      <c r="W31" s="6">
-        <f t="shared" si="1"/>
+      <c r="X31" s="6">
+        <f t="shared" si="2"/>
         <v>-1.7399465226105779E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -7071,22 +7406,26 @@
       <c r="N32" s="10">
         <v>250935110.23913899</v>
       </c>
-      <c r="T32" s="10">
+      <c r="O32" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1768467768348346E-2</v>
+      </c>
+      <c r="U32" s="10">
         <v>2223610592.0577793</v>
       </c>
-      <c r="U32" s="10">
+      <c r="V32" s="10">
         <f t="shared" si="0"/>
         <v>0.19289686268469403</v>
       </c>
-      <c r="V32" s="10">
+      <c r="W32" s="10">
         <v>1373669</v>
       </c>
-      <c r="W32" s="6">
-        <f t="shared" si="1"/>
+      <c r="X32" s="6">
+        <f t="shared" si="2"/>
         <v>1.3831762093691988E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -7126,31 +7465,35 @@
       <c r="N33" s="10">
         <v>254146163.55732399</v>
       </c>
-      <c r="T33" s="10">
+      <c r="O33" s="3">
+        <f t="shared" si="1"/>
+        <v>2.044111039267912E-2</v>
+      </c>
+      <c r="U33" s="10">
         <v>2784453922.4414577</v>
       </c>
-      <c r="U33" s="10">
+      <c r="V33" s="10">
         <f t="shared" si="0"/>
         <v>0.22395510211633088</v>
       </c>
-      <c r="V33" s="10">
+      <c r="W33" s="10">
         <v>1377615</v>
       </c>
-      <c r="W33" s="6">
-        <f t="shared" si="1"/>
+      <c r="X33" s="6">
+        <f t="shared" si="2"/>
         <v>2.8725988575122536E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="J34" s="7"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="V34" s="10">
+      <c r="W34" s="10">
         <v>1380405</v>
       </c>
-      <c r="W34" s="6">
-        <f t="shared" si="1"/>
+      <c r="X34" s="6">
+        <f t="shared" si="2"/>
         <v>2.0252392722204678E-3</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurtis Potier\Documents\ec499_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855B7DA-D9D6-4BA3-9121-788E2FCD5935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4AFEAA-ADDB-4B65-AD37-3F6ACD0C2DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Initial Conditions</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>fdi_gdp</t>
+  </si>
+  <si>
+    <t>patents</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/IP.PAT.RESD</t>
+  </si>
+  <si>
+    <t>patents_100000</t>
   </si>
 </sst>
 </file>
@@ -534,10 +543,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -844,6 +853,14 @@
       </c>
       <c r="C34" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -873,8 +890,8 @@
   </sheetPr>
   <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -959,8 +976,12 @@
       <c r="X1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="Y1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -1406,8 +1427,13 @@
         <f t="shared" si="1"/>
         <v>1.0829729327414087E-2</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="Y8" s="10">
+        <v>893</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Y8/(F8/100000)</f>
+        <v>8.6448454503959642</v>
+      </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -1489,6 +1515,13 @@
         <f t="shared" si="1"/>
         <v>1.1656533874291424E-2</v>
       </c>
+      <c r="Y9" s="10">
+        <v>756</v>
+      </c>
+      <c r="Z9" s="6">
+        <f t="shared" ref="Z9:Z33" si="3">Y9/(F9/100000)</f>
+        <v>7.3159494374992926</v>
+      </c>
     </row>
     <row r="10" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1554,8 +1587,13 @@
         <f t="shared" si="1"/>
         <v>3.9499154534774223E-3</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Y10" s="10">
+        <v>626</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="3"/>
+        <v>6.0616312973062634</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -1637,6 +1675,13 @@
         <f t="shared" si="1"/>
         <v>-3.9776013745597888E-4</v>
       </c>
+      <c r="Y11" s="10">
+        <v>614</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="3"/>
+        <v>5.9523572934456883</v>
+      </c>
     </row>
     <row r="12" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1702,6 +1747,13 @@
         <f t="shared" si="1"/>
         <v>-4.3220300199579747E-3</v>
       </c>
+      <c r="Y12" s="10">
+        <v>579</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="3"/>
+        <v>5.6191055800823966</v>
+      </c>
     </row>
     <row r="13" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1767,6 +1819,13 @@
         <f t="shared" si="1"/>
         <v>4.1596650766532904E-3</v>
       </c>
+      <c r="Y13" s="10">
+        <v>624</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="3"/>
+        <v>6.0615639242914554</v>
+      </c>
     </row>
     <row r="14" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1832,6 +1891,13 @@
         <f t="shared" si="1"/>
         <v>5.4630553776581648E-3</v>
       </c>
+      <c r="Y14" s="10">
+        <v>596</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" si="3"/>
+        <v>5.7954892423661937</v>
+      </c>
     </row>
     <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1897,6 +1963,13 @@
         <f t="shared" si="1"/>
         <v>-5.9453252297951825E-3</v>
       </c>
+      <c r="Y15" s="10">
+        <v>555</v>
+      </c>
+      <c r="Z15" s="6">
+        <f t="shared" si="3"/>
+        <v>5.4119609016541395</v>
+      </c>
     </row>
     <row r="16" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1962,8 +2035,15 @@
         <f t="shared" si="1"/>
         <v>-4.0750966574116696E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y16" s="10">
+        <v>568</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" si="3"/>
+        <v>5.559576787005077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -2027,8 +2107,15 @@
         <f t="shared" si="1"/>
         <v>3.1136428998420186E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y17" s="10">
+        <v>526</v>
+      </c>
+      <c r="Z17" s="6">
+        <f t="shared" si="3"/>
+        <v>5.1584224092853175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -2092,8 +2179,15 @@
         <f t="shared" si="1"/>
         <v>-1.1303407773892887E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y18" s="10">
+        <v>625</v>
+      </c>
+      <c r="Z18" s="6">
+        <f t="shared" si="3"/>
+        <v>6.1310586876709214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -2157,8 +2251,15 @@
         <f t="shared" si="1"/>
         <v>-5.9086821942154586E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y19" s="10">
+        <v>623</v>
+      </c>
+      <c r="Z19" s="6">
+        <f t="shared" si="3"/>
+        <v>6.1095795756068316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -2222,8 +2323,15 @@
         <f t="shared" si="1"/>
         <v>1.081635436526357E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y20" s="10">
+        <v>586</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" si="3"/>
+        <v>5.7387876233349679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -2287,8 +2395,15 @@
         <f t="shared" si="1"/>
         <v>1.1051161375718061E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y21" s="10">
+        <v>641</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="3"/>
+        <v>6.2604350758210963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -2352,8 +2467,15 @@
         <f t="shared" si="1"/>
         <v>-7.2307611619813902E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y22" s="10">
+        <v>716</v>
+      </c>
+      <c r="Z22" s="6">
+        <f t="shared" si="3"/>
+        <v>6.9522473819351092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -2417,8 +2539,15 @@
         <f t="shared" si="1"/>
         <v>3.7045386045473014E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y23" s="10">
+        <v>712</v>
+      </c>
+      <c r="Z23" s="6">
+        <f t="shared" si="3"/>
+        <v>6.8563044730742231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -2482,8 +2611,15 @@
         <f t="shared" si="1"/>
         <v>8.5755806134548782E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y24" s="10">
+        <v>789</v>
+      </c>
+      <c r="Z24" s="6">
+        <f t="shared" si="3"/>
+        <v>7.5546230846301627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -2547,8 +2683,15 @@
         <f t="shared" si="1"/>
         <v>-1.5702005163012835E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y25" s="10">
+        <v>868</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="3"/>
+        <v>8.2868629354779877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -2612,8 +2755,15 @@
         <f t="shared" si="1"/>
         <v>-1.6566168803975271E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y26" s="10">
+        <v>783</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4599222110180481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -2677,8 +2827,15 @@
         <f t="shared" si="1"/>
         <v>7.137776476564205E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y27" s="10">
+        <v>867</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="3"/>
+        <v>8.2486702943690702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -2742,8 +2899,15 @@
         <f t="shared" si="1"/>
         <v>1.0119596089009789E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y28" s="10">
+        <v>984</v>
+      </c>
+      <c r="Z28" s="6">
+        <f t="shared" si="3"/>
+        <v>9.3587078591841646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -2807,8 +2971,15 @@
         <f t="shared" si="1"/>
         <v>2.0344129497616468E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y29" s="10">
+        <v>910</v>
+      </c>
+      <c r="Z29" s="6">
+        <f t="shared" si="3"/>
+        <v>8.6457957158087044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -2872,8 +3043,15 @@
         <f t="shared" si="1"/>
         <v>2.4133784932479866E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y30" s="10">
+        <v>880</v>
+      </c>
+      <c r="Z30" s="6">
+        <f t="shared" si="3"/>
+        <v>8.3443492967372936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -2929,8 +3107,15 @@
         <f t="shared" si="1"/>
         <v>9.5654461326774264E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y31" s="10">
+        <v>792</v>
+      </c>
+      <c r="Z31" s="6">
+        <f t="shared" si="3"/>
+        <v>7.495505535885111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -2986,8 +3171,15 @@
         <f t="shared" si="1"/>
         <v>5.6653286046481413E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y32" s="10">
+        <v>794</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4944985283787586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -3043,8 +3235,15 @@
         <f t="shared" si="1"/>
         <v>-2.8446643489833854E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="10">
+        <v>678</v>
+      </c>
+      <c r="Z33" s="6">
+        <f t="shared" si="3"/>
+        <v>6.3807590938757413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W34" s="10">
         <v>5376592</v>
       </c>
@@ -3065,8 +3264,8 @@
   </sheetPr>
   <dimension ref="A1:AY34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3148,7 +3347,12 @@
       <c r="X1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -3510,7 +3714,13 @@
         <f t="shared" ref="X7:X34" si="1">(W7-W6)/W6</f>
         <v>2.1938477724864616E-3</v>
       </c>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="10">
+        <v>309</v>
+      </c>
+      <c r="Z7">
+        <f>Y7/(F7/100000)</f>
+        <v>0.59251855014507504</v>
+      </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
@@ -3597,7 +3807,13 @@
         <f t="shared" si="1"/>
         <v>1.7394733651537964E-3</v>
       </c>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="10">
+        <v>8687</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:Z33" si="3">Y8/(F8/100000)</f>
+        <v>16.648393105223324</v>
+      </c>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -3673,6 +3889,13 @@
         <f t="shared" si="1"/>
         <v>1.194710356584878E-3</v>
       </c>
+      <c r="Y9" s="10">
+        <v>5355</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>10.313737738809975</v>
+      </c>
     </row>
     <row r="10" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3741,6 +3964,13 @@
         <f t="shared" si="1"/>
         <v>-1.4094398474214385E-3</v>
       </c>
+      <c r="Y10" s="10">
+        <v>4804</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>9.3259281632916444</v>
+      </c>
     </row>
     <row r="11" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3809,6 +4039,13 @@
         <f t="shared" si="1"/>
         <v>-1.4845701076355579E-2</v>
       </c>
+      <c r="Y11" s="10">
+        <v>3636</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>7.121426132566758</v>
+      </c>
     </row>
     <row r="12" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -3877,6 +4114,13 @@
         <f t="shared" si="1"/>
         <v>-1.7347517320859401E-2</v>
       </c>
+      <c r="Y12" s="10">
+        <v>4688</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>9.2659016302393322</v>
+      </c>
     </row>
     <row r="13" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3945,6 +4189,13 @@
         <f t="shared" si="1"/>
         <v>-1.8148150334432414E-2</v>
       </c>
+      <c r="Y13" s="10">
+        <v>5319</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>10.60746344637983</v>
+      </c>
     </row>
     <row r="14" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -4013,6 +4264,13 @@
         <f t="shared" si="1"/>
         <v>-2.0058416055158276E-2</v>
       </c>
+      <c r="Y14" s="10">
+        <v>5401</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>10.873033528038677</v>
+      </c>
     </row>
     <row r="15" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -4081,6 +4339,13 @@
         <f t="shared" si="1"/>
         <v>1.040571397914393E-2</v>
       </c>
+      <c r="Y15" s="10">
+        <v>5620</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>11.428374351571934</v>
+      </c>
     </row>
     <row r="16" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -4149,8 +4414,15 @@
         <f t="shared" si="1"/>
         <v>-2.0686844759221414E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y16" s="10">
+        <v>7208</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>14.805726702265732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -4217,8 +4489,15 @@
         <f t="shared" si="1"/>
         <v>-7.2591344471238271E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y17" s="10">
+        <v>1601</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>3.321404491468285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -4285,8 +4564,15 @@
         <f t="shared" si="1"/>
         <v>-5.8104912903314395E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y18" s="10">
+        <v>1635</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>3.4195756588957593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -4353,8 +4639,15 @@
         <f t="shared" si="1"/>
         <v>-6.956597054063372E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y19" s="10">
+        <v>4090</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>8.6193089379494054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -4421,8 +4714,15 @@
         <f t="shared" si="1"/>
         <v>-5.6382275859265633E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y20" s="10">
+        <v>3538</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>7.5108560316653277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -4489,8 +4789,15 @@
         <f t="shared" si="1"/>
         <v>-5.7756431159162814E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y21" s="10">
+        <v>3474</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>7.4250204380420088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -4557,8 +4864,15 @@
         <f t="shared" si="1"/>
         <v>-5.5825108224086635E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y22" s="10">
+        <v>3440</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>7.3963622368405488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -4625,8 +4939,15 @@
         <f t="shared" si="1"/>
         <v>-5.0839592596879091E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y23" s="10">
+        <v>2825</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>6.1070253490192012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -4693,8 +5014,15 @@
         <f t="shared" si="1"/>
         <v>-2.894912887025051E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y24" s="10">
+        <v>2434</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>5.285180432238298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -4761,8 +5089,15 @@
         <f t="shared" si="1"/>
         <v>-3.2804532434550452E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y25" s="10">
+        <v>2556</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>5.5721844227360817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -4829,8 +5164,15 @@
         <f t="shared" si="1"/>
         <v>-2.0726719675720324E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y26" s="10">
+        <v>2649</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>5.7957252970610051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -4897,8 +5239,15 @@
         <f t="shared" si="1"/>
         <v>-1.0496348304953872E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y27" s="10">
+        <v>2491</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>5.4635220525822872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -4965,8 +5314,15 @@
         <f t="shared" si="1"/>
         <v>6.8108527920224295E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y28" s="10">
+        <v>2856</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>6.2783581302099822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -5033,8 +5389,15 @@
         <f t="shared" si="1"/>
         <v>-2.9940300178764274E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y29" s="10">
+        <v>2457</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>5.4272019712339743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -5095,8 +5458,15 @@
         <f t="shared" si="1"/>
         <v>-4.7891425300407786E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y30" s="10">
+        <v>2271</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>5.0294515246911855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -5154,8 +5524,15 @@
         <f t="shared" si="1"/>
         <v>-9.6170613661155039E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y31" s="10">
+        <v>2233</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>4.961710063483447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -5206,8 +5583,15 @@
         <f t="shared" si="1"/>
         <v>-8.6309823093048254E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y32" s="10">
+        <v>2283</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>5.0924430086367432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -5258,8 +5642,15 @@
         <f t="shared" si="1"/>
         <v>-1.1232825220032933E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y33" s="10">
+        <v>2107</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>4.7218314628426601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W34" s="10">
         <v>20037572</v>
       </c>
@@ -5280,8 +5671,8 @@
   </sheetPr>
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5362,8 +5753,12 @@
       <c r="X1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="Y1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -5688,7 +6083,7 @@
         <v>2400000</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O3:O33" si="1">N7/B7</f>
+        <f t="shared" ref="O7:O33" si="1">N7/B7</f>
         <v>1.8859362850132629E-3</v>
       </c>
       <c r="S7" s="10">
@@ -5774,8 +6169,13 @@
         <f t="shared" si="2"/>
         <v>-2.4446189351117323E-2</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="Y8" s="10">
+        <v>184</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Y8/(F8/100000)</f>
+        <v>5.4711296812353343</v>
+      </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -5855,8 +6255,13 @@
         <f t="shared" si="2"/>
         <v>-2.5179837971086132E-2</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="Y9" s="10">
+        <v>154</v>
+      </c>
+      <c r="Z9" s="6">
+        <f t="shared" ref="Z9:Z33" si="3">Y9/(F9/100000)</f>
+        <v>4.6898787239997235</v>
+      </c>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -5936,8 +6341,13 @@
         <f t="shared" si="2"/>
         <v>-2.2023413089420497E-2</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Y10" s="10">
+        <v>187</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="3"/>
+        <v>5.8122403917760845</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -6020,6 +6430,13 @@
         <f t="shared" si="2"/>
         <v>-1.3688183039199903E-2</v>
       </c>
+      <c r="Y11" s="10">
+        <v>162</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="3"/>
+        <v>5.113279660730738</v>
+      </c>
     </row>
     <row r="12" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -6088,6 +6505,13 @@
         <f t="shared" si="2"/>
         <v>-8.4257457685437288E-3</v>
       </c>
+      <c r="Y12" s="10">
+        <v>62</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9788777146132779</v>
+      </c>
     </row>
     <row r="13" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -6156,6 +6580,13 @@
         <f t="shared" si="2"/>
         <v>-4.0442557348365528E-3</v>
       </c>
+      <c r="Y13" s="10">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.412594127359879</v>
+      </c>
     </row>
     <row r="14" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -6224,6 +6655,13 @@
         <f t="shared" si="2"/>
         <v>-1.7731033032487753E-3</v>
       </c>
+      <c r="Y14" s="10">
+        <v>109</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5286249175305322</v>
+      </c>
     </row>
     <row r="15" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -6292,6 +6730,13 @@
         <f t="shared" si="2"/>
         <v>-1.2880747751893634E-3</v>
       </c>
+      <c r="Y15" s="10">
+        <v>119</v>
+      </c>
+      <c r="Z15" s="6">
+        <f t="shared" si="3"/>
+        <v>3.8767379758410812</v>
+      </c>
     </row>
     <row r="16" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -6360,8 +6805,15 @@
         <f t="shared" si="2"/>
         <v>3.750119672249815E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y16" s="10">
+        <v>140</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5891302516449572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
@@ -6428,8 +6880,15 @@
         <f t="shared" si="2"/>
         <v>3.4267050358373326E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y17" s="10">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="6">
+        <f t="shared" si="3"/>
+        <v>6.5920056111151757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -6496,8 +6955,15 @@
         <f t="shared" si="2"/>
         <v>3.2534876460205441E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y18" s="10">
+        <v>151</v>
+      </c>
+      <c r="Z18" s="6">
+        <f t="shared" si="3"/>
+        <v>5.0034261872036874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -6564,8 +7030,13 @@
         <f t="shared" si="2"/>
         <v>3.542581069568312E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2005</v>
       </c>
@@ -6632,8 +7103,15 @@
         <f t="shared" si="2"/>
         <v>3.9169330790102897E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y20" s="10">
+        <v>206</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" si="3"/>
+        <v>6.9098092121173904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2006</v>
       </c>
@@ -6700,8 +7178,15 @@
         <f t="shared" si="2"/>
         <v>1.5796218082617431E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y21" s="10">
+        <v>192</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="3"/>
+        <v>6.4901986169792387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2007</v>
       </c>
@@ -6768,8 +7253,15 @@
         <f t="shared" si="2"/>
         <v>2.0725602187524335E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y22" s="10">
+        <v>135</v>
+      </c>
+      <c r="Z22" s="6">
+        <f t="shared" si="3"/>
+        <v>4.6033953279970321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2008</v>
       </c>
@@ -6836,8 +7328,15 @@
         <f t="shared" si="2"/>
         <v>-9.232956168597436E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y23" s="10">
+        <v>226</v>
+      </c>
+      <c r="Z23" s="6">
+        <f t="shared" si="3"/>
+        <v>7.7726854077805267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2009</v>
       </c>
@@ -6904,8 +7403,15 @@
         <f t="shared" si="2"/>
         <v>1.0325762480012993E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y24" s="10">
+        <v>116</v>
+      </c>
+      <c r="Z24" s="6">
+        <f t="shared" si="3"/>
+        <v>4.0164925494063208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2010</v>
       </c>
@@ -6972,8 +7478,15 @@
         <f t="shared" si="2"/>
         <v>4.1351105153963827E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y25" s="10">
+        <v>136</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="3"/>
+        <v>4.7266222480023936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2011</v>
       </c>
@@ -7040,8 +7553,15 @@
         <f t="shared" si="2"/>
         <v>1.7554590849464782E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y26" s="10">
+        <v>121</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="3"/>
+        <v>4.2064453867809153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2012</v>
       </c>
@@ -7108,8 +7628,15 @@
         <f t="shared" si="2"/>
         <v>-2.0405517822955602E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y27" s="10">
+        <v>137</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="3"/>
+        <v>4.7499695759247968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2013</v>
       </c>
@@ -7176,8 +7703,15 @@
         <f t="shared" si="2"/>
         <v>9.3122375848132301E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y28" s="10">
+        <v>125</v>
+      </c>
+      <c r="Z28" s="6">
+        <f t="shared" si="3"/>
+        <v>4.3139387848635273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -7244,8 +7778,15 @@
         <f t="shared" si="2"/>
         <v>-1.7621083074355738E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y29" s="10">
+        <v>121</v>
+      </c>
+      <c r="Z29" s="6">
+        <f t="shared" si="3"/>
+        <v>4.1546448070545177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -7306,8 +7847,15 @@
         <f t="shared" si="2"/>
         <v>-9.7391627110984241E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y30" s="10">
+        <v>113</v>
+      </c>
+      <c r="Z30" s="6">
+        <f t="shared" si="3"/>
+        <v>3.8625176163275796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2016</v>
       </c>
@@ -7365,8 +7913,15 @@
         <f t="shared" si="2"/>
         <v>-1.7399465226105779E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y31" s="10">
+        <v>125</v>
+      </c>
+      <c r="Z31" s="6">
+        <f t="shared" si="3"/>
+        <v>4.2572814839589039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2017</v>
       </c>
@@ -7424,8 +7979,15 @@
         <f t="shared" si="2"/>
         <v>1.3831762093691988E-5</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y32" s="10">
+        <v>107</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="3"/>
+        <v>3.633512394182441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
@@ -7483,8 +8045,15 @@
         <f t="shared" si="2"/>
         <v>2.8725988575122536E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y33" s="10">
+        <v>101</v>
+      </c>
+      <c r="Z33" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4216688529210888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="J34" s="7"/>
       <c r="K34" s="8"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurtis Potier\Documents\ec499_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4AFEAA-ADDB-4B65-AD37-3F6ACD0C2DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405DD0A-1512-47ED-9D0B-7B4AF06BA5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inital conditions + sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>Initial Conditions</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>patents_100000</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN</t>
+  </si>
+  <si>
+    <t>labor force</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -861,6 +867,14 @@
       </c>
       <c r="C35" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +904,7 @@
   </sheetPr>
   <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurtis Potier\Documents\ec499_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405DD0A-1512-47ED-9D0B-7B4AF06BA5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA1DFB-5E91-4816-9E80-A2F14C104722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>Initial Conditions</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>labor force</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/IT.NET.USER.ZS</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -857,7 +863,7 @@
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -875,6 +881,14 @@
       </c>
       <c r="C36" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -892,6 +906,7 @@
     <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="C33" r:id="rId13" xr:uid="{BD076F66-D31E-4740-BB0F-F01C2418D966}"/>
+    <hyperlink ref="C34" r:id="rId14" xr:uid="{CEFA520F-754B-49A7-93D2-FC247A1E2451}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -904,7 +919,7 @@
   </sheetPr>
   <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
